--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2447025\Documents\GitHub\ColorfulFighter6\個人製作_冬\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3DDF88-87DD-495F-B4E6-8892DFA5868E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB85AF3-BB11-409A-9DB1-609286192DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$87</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="242">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -962,16 +962,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルファ素材集め</t>
-    <rPh sb="4" eb="6">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI素材</t>
     <rPh sb="2" eb="4">
       <t>ソザイ</t>
@@ -993,9 +983,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了</t>
-  </si>
-  <si>
     <t>エフェクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1011,13 +998,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>弾</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業中</t>
     <rPh sb="0" eb="3">
       <t>サギョウチュウ</t>
@@ -1035,95 +1015,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>矩形と矩形の当たり判定</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラクターと床の当たり判定</t>
-    <rPh sb="7" eb="8">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全体の作業工数</t>
   </si>
   <si>
-    <t>キャラクターと壁の当たり判定</t>
-    <rPh sb="7" eb="8">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成にかかる時間</t>
-  </si>
-  <si>
-    <t>攻撃の当たり判定</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガードの当たり判定</t>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投げの当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>押し合い判定</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プレイヤーベース</t>
@@ -1137,47 +1032,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>立ち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃがみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投げ(つかみ)</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力猶予(コマンドの成立フレーム)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上段ガード</t>
-    <rPh sb="0" eb="1">
-      <t>ダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下段ガード</t>
-    <rPh sb="0" eb="2">
-      <t>ゲダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>被弾＋のけぞり</t>
     <rPh sb="0" eb="2">
       <t>ヒダン</t>
@@ -1185,13 +1039,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヒットストップの実装</t>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>死亡</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
@@ -1199,273 +1046,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャンセル</t>
-  </si>
-  <si>
     <t>システム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2本先取</t>
-    <rPh sb="1" eb="2">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間制限</t>
-    <rPh sb="0" eb="4">
-      <t>ジカンセイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>常に相手の方向を向く</t>
-    <rPh sb="0" eb="1">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラクターベース</t>
-  </si>
-  <si>
-    <t>弱P攻撃</t>
-    <rPh sb="0" eb="1">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>強P攻撃</t>
-    <rPh sb="0" eb="1">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空中弱P攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空中強P攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃがみ弱P攻撃</t>
-    <rPh sb="4" eb="5">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃがみ強P攻撃</t>
-    <rPh sb="4" eb="5">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弱K攻撃</t>
-    <rPh sb="0" eb="1">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>強K攻撃</t>
-    <rPh sb="0" eb="1">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空中弱K攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空中強K攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃがみ弱K攻撃</t>
-    <rPh sb="4" eb="5">
-      <t>ジャク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しゃがみ強K攻撃</t>
-    <rPh sb="4" eb="5">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾1</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド2</t>
-  </si>
-  <si>
-    <t>弾2</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド3</t>
-  </si>
-  <si>
-    <t>弾3</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド4</t>
-  </si>
-  <si>
-    <t>投げ技1</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド5</t>
-  </si>
-  <si>
-    <t>投げ技2</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド6</t>
-  </si>
-  <si>
-    <t>突進技1</t>
-  </si>
-  <si>
-    <t>カスタムコマンド7</t>
-  </si>
-  <si>
-    <t>突進技2</t>
-  </si>
-  <si>
-    <t>カスタムコマンド8</t>
-  </si>
-  <si>
-    <t>対空技1</t>
-    <rPh sb="0" eb="2">
-      <t>タイクウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワザ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタムコマンド9</t>
-  </si>
-  <si>
-    <t>対空技2</t>
-    <rPh sb="0" eb="2">
-      <t>タイクウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワザ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1496,31 +1077,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作業中</t>
-  </si>
-  <si>
     <t>カメラ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動</t>
-  </si>
-  <si>
-    <t>勝利敗北演出</t>
-    <rPh sb="0" eb="6">
-      <t>ショウリハイボクエンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ設計</t>
-  </si>
-  <si>
-    <t>ステージ実装</t>
   </si>
   <si>
     <t>音処理</t>
@@ -1546,49 +1108,727 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル画面</t>
-  </si>
-  <si>
-    <t>技セレクト画面</t>
-  </si>
-  <si>
-    <t>バトル画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リザルト画面</t>
+    <t>UX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定処理</t>
+  </si>
+  <si>
+    <t>画面遷移</t>
+  </si>
+  <si>
+    <t>先行入力</t>
+  </si>
+  <si>
+    <t>ビルドテスト</t>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ(2回)</t>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動(スティックの深度に合わせて速度が変わる)</t>
+    <rPh sb="9" eb="11">
+      <t>シンド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものを投げる</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技ゲージ</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱攻撃(コンビネーション)</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強攻撃(溜め技あり)</t>
+    <rPh sb="0" eb="1">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミーベース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムドロップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ攻撃</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分から一定範囲内にプレイヤー入ってから行動開始</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵1</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵2</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殴るとひるむし攻撃もあんまりしてこない弱いやつ(近距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ナグ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殴るとひるむし攻撃もあんまりしてこない弱いやつ(遠距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ナグ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵からの攻撃を受けずにプレイヤーの攻撃を当て続けると火力が上がっていく</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵3</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵4</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タフなだけのやつ(近距離)</t>
+    <rPh sb="9" eb="12">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所に合わせてカメラの角度を変える</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場所に合わせてカメラの位置を変える</t>
+    <rPh sb="0" eb="2">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラに影響を与える位置にプレイヤーが来た時に情報を与える</t>
+    <rPh sb="4" eb="6">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルシーン実装</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチプレイヤー(2人まで)</t>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューシーン実装</t>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒットエフェクト実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬撃エフェクト実装</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撃破エフェクト実装</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムドロップエフェクト実装</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションシーン実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルシーンのUI実装</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューシーンのUI実装</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションシーンのUI実装</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面シーンのUI実装</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決定処理</t>
-  </si>
-  <si>
-    <t>画面遷移</t>
-  </si>
-  <si>
-    <t>プレイヤー操作</t>
-  </si>
-  <si>
-    <t>先行入力</t>
-  </si>
-  <si>
-    <t>ヒットエフェクト実装</t>
-  </si>
-  <si>
-    <t>ガードエフェクト実装</t>
-  </si>
-  <si>
-    <t>ビルドテスト</t>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃した際の敵への吸い付き</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーへの操作を促すボタンを主張させる</t>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウナガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3パターンの攻撃を距離に応じて使い分ける。弱い。</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4パターンの攻撃を距離に応じて使い分ける。そこそこの強さ。</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4パターンの攻撃を距離に応じて使い分ける。強い。</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾を投げてくる(ボマー)</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージセレクトシーン実装</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1シーン実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ2シーン実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ3シーン実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1はチュートリアルを入れる(看板的なもので)。ゲームの進行は止めない。</t>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カンバンテキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1設計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ2設計</t>
+  </si>
+  <si>
+    <t>ステージ3設計</t>
+  </si>
+  <si>
+    <t>素材集め</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルとカプセルの当たり判定と押し戻し</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルとポリゴンの当たり判定と押し戻し</t>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルと球の当たり判定と押し戻し</t>
+    <rPh sb="5" eb="6">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球と球の当たり判定と押し戻し</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球とポリゴンの当たり判定と押し戻し</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものをつかむ(調べるも含む)</t>
+    <rPh sb="7" eb="8">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーシーン実装</t>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面シーン実装</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバーシーンのUI実装</t>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力回復</t>
+    <rPh sb="0" eb="4">
+      <t>タイリョクカイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺ゲージアップ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU(AI)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーションブレンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームシーンUI実装</t>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1599,7 +1839,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,8 +1878,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -1647,29 +1902,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="20"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,8 +2075,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1891,14 +2164,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1932,50 +2377,67 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -1985,16 +2447,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF66FFCC"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF9933FF"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF99FF33"/>
-      <color rgb="FFCC9900"/>
-      <color rgb="FFFF99CC"/>
-      <color rgb="FF0099CC"/>
-      <color rgb="FFCC6600"/>
-      <color rgb="FFC198E0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2366,11 +2828,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.5</v>
+        <v>0.2264957264957265</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2410,7 +2872,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45677</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2475,11 +2937,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-22</v>
+        <v>-86</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-4.1818181818181817</v>
+        <v>-1.069767441860465</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2506,11 +2968,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-2</v>
+        <v>-66</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-46</v>
+        <v>-1.393939393939394</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2537,11 +2999,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>11</v>
+        <v>-55</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>8.3636363636363633</v>
+        <v>-1.6727272727272726</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4058,7 +4520,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4074,8 +4536,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F103)</f>
-        <v>35.75</v>
+        <f>SUM(作業工数見積もり!F3:F117)</f>
+        <v>46.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4083,8 +4545,8 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>18.75</v>
+        <f>SUMIF(作業工数見積もり!H3:H44,"完了",作業工数見積もり!F3:F44)</f>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4096,11 +4558,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0.35377358490566035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4118,7 +4580,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45677</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4134,16 +4596,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2024,12,20)</f>
-        <v>45646</v>
+        <f>DATE(2025,7,30)</f>
+        <v>45868</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>-22</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>-0.77272727272727271</v>
+        <v>0.63356164383561642</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4151,16 +4613,16 @@
         <v>28</v>
       </c>
       <c r="C11" s="1">
-        <f>DATE(2025,1,17)</f>
-        <v>45674</v>
+        <f>DATE(2025,8,1)</f>
+        <v>45870</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>-2</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>-8.5</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4168,16 +4630,16 @@
         <v>30</v>
       </c>
       <c r="C12" s="1">
-        <f>DATE(2025,2,3)</f>
-        <v>45691</v>
+        <f>DATE(2025,8,20)</f>
+        <v>45889</v>
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>1.5454545454545454</v>
+        <v>0.52556818181818177</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4224,32 +4686,32 @@
       <c r="B24" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="41">
-        <v>45631</v>
+      <c r="C24" s="25">
+        <v>45807</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="41">
-        <v>45662</v>
+      <c r="C25" s="25">
+        <v>45838</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="41">
-        <v>45677</v>
+      <c r="C26" s="25">
+        <v>45858</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="41">
-        <v>45682</v>
+      <c r="C27" s="25">
+        <v>45868</v>
       </c>
     </row>
   </sheetData>
@@ -4260,1544 +4722,1951 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="B2:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="21"/>
-    <col min="10" max="10" width="15.625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="33" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="9.75" style="26"/>
+    <col min="2" max="2" width="35.375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="142.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="34.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" style="26" customWidth="1"/>
+    <col min="12" max="12" width="16" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="9.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:13" s="26" customFormat="1" ht="33.75" thickBot="1">
+      <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="30" t="s">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="2:13" s="26" customFormat="1">
+      <c r="B3" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="36">
+        <f>SUM(K4,K5,K6)</f>
+        <v>83</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="2:13" s="26" customFormat="1">
+      <c r="B4" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="40">
+        <f>COUNTIF(E3:E85,J4)</f>
+        <v>43</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="2:13" s="26" customFormat="1">
+      <c r="B5" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="K5" s="40">
+        <f>COUNTIF(E3:E85,J5)</f>
+        <v>36</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="2:13" s="26" customFormat="1">
+      <c r="B6" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="40">
+        <f>COUNTIF(E3:E85,J6)</f>
+        <v>4</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="2:13" s="26" customFormat="1">
+      <c r="B7" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="40">
+        <f>COUNTIF(H3:H85,J7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <f>K7/K3</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="2:13" s="26" customFormat="1">
+      <c r="B8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="27">
+        <v>2</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="40">
+        <f>COUNTIF(H3:H85,J8)</f>
+        <v>83</v>
+      </c>
+      <c r="L8" s="47">
+        <f>(K8+K9)/K3</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:13" s="26" customFormat="1">
+      <c r="B9" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="27">
         <v>0.25</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="K9" s="31">
+        <f>COUNTIF(H3:H85,J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="2:13" s="26" customFormat="1">
+      <c r="B10" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="2:13" s="26" customFormat="1">
+      <c r="B11" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="31">
+        <f>SUM(F3:F85)</f>
+        <v>46</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="2:13" s="26" customFormat="1" ht="33.75" thickBot="1">
+      <c r="B12" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="53">
+        <f>8*K11</f>
+        <v>368</v>
+      </c>
+      <c r="L12" s="54"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="2:13" s="26" customFormat="1">
+      <c r="B13" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:13" s="26" customFormat="1">
+      <c r="B14" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="26" customFormat="1">
+      <c r="B15" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="26" customFormat="1">
+      <c r="B16" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="26" customFormat="1">
+      <c r="B17" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="26" customFormat="1">
+      <c r="B18" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="27">
+        <v>1</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="26" customFormat="1">
+      <c r="B19" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="26" customFormat="1">
+      <c r="B20" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="26" customFormat="1">
+      <c r="B21" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="26" customFormat="1">
+      <c r="B22" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="26" customFormat="1">
+      <c r="B23" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="26" customFormat="1">
+      <c r="B24" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="26" customFormat="1">
+      <c r="B25" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="26" customFormat="1">
+      <c r="B26" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="26" customFormat="1">
+      <c r="B27" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="26" customFormat="1">
+      <c r="B28" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="26" customFormat="1">
+      <c r="B29" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="26" customFormat="1">
+      <c r="B30" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="26" customFormat="1">
+      <c r="B31" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" s="26" customFormat="1">
+      <c r="B32" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="26" customFormat="1">
+      <c r="B33" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="26" customFormat="1">
+      <c r="B34" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="26" customFormat="1">
+      <c r="B35" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="26" customFormat="1">
+      <c r="B36" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="26" customFormat="1">
+      <c r="B37" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="27">
+        <v>2</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="26" customFormat="1">
+      <c r="B38" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="26" customFormat="1">
+      <c r="B39" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="26" customFormat="1">
+      <c r="B40" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="26" customFormat="1">
+      <c r="B41" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="26" customFormat="1">
+      <c r="B42" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="27">
+        <v>1</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="26" customFormat="1">
+      <c r="B43" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="27">
+        <v>1</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="26" customFormat="1">
+      <c r="B44" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="27">
+        <v>1</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="26" customFormat="1">
+      <c r="B45" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="26" customFormat="1">
+      <c r="B46" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="26" customFormat="1">
+      <c r="B47" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="26" customFormat="1">
+      <c r="B48" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="26" customFormat="1">
+      <c r="B49" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="26" customFormat="1">
+      <c r="B50" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="26" customFormat="1">
+      <c r="B51" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="26" customFormat="1">
+      <c r="B52" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="27">
+        <v>1</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="26" customFormat="1">
+      <c r="B53" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="27">
+        <v>1</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="26" customFormat="1">
+      <c r="B54" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="27">
+        <v>1</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="26" customFormat="1">
+      <c r="B55" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="27">
+        <v>1</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="26" customFormat="1">
+      <c r="B56" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="27">
+        <v>1</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="26" customFormat="1">
+      <c r="B57" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="26" customFormat="1">
+      <c r="B58" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="26" customFormat="1">
+      <c r="B59" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="26" customFormat="1">
+      <c r="B60" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="26" customFormat="1">
+      <c r="B61" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="26" customFormat="1">
+      <c r="B62" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="26" customFormat="1">
+      <c r="B63" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="26" customFormat="1">
+      <c r="B64" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" s="26" customFormat="1">
+      <c r="B65" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="26" customFormat="1">
+      <c r="B66" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="27">
+        <v>1</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" s="26" customFormat="1">
+      <c r="B67" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="27">
+        <v>1</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" s="26" customFormat="1">
+      <c r="B68" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="27">
+        <v>1</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" s="26" customFormat="1">
+      <c r="B69" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="26" customFormat="1">
+      <c r="B70" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="26" customFormat="1">
+      <c r="B71" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" s="26" customFormat="1">
+      <c r="B72" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" s="26" customFormat="1">
+      <c r="B73" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" s="26" customFormat="1">
+      <c r="B74" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" s="26" customFormat="1">
+      <c r="B75" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="26" customFormat="1">
+      <c r="B76" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="26" customFormat="1">
+      <c r="B77" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" s="26" customFormat="1">
+      <c r="B78" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" s="26" customFormat="1">
+      <c r="B79" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="K3" s="21">
-        <f>SUM(K4,K5,K6)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="D79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" s="26" customFormat="1">
+      <c r="B80" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" s="26" customFormat="1">
+      <c r="B81" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" s="26" customFormat="1">
+      <c r="B82" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="27">
         <v>0.25</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="51">
-        <f>COUNTIF(E3:E72,J4)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="G82" s="27"/>
+      <c r="H82" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" s="26" customFormat="1">
+      <c r="B83" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="C83" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="27">
         <v>0.25</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="51">
-        <f>COUNTIF(E3:E72,J5)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="G83" s="27"/>
+      <c r="H83" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" s="26" customFormat="1">
+      <c r="B84" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="27">
         <v>0.5</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="51">
-        <f>COUNTIF(E3:E72,J6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="29">
-        <v>1</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="51">
-        <f>COUNTIF(H3:H72,J7)</f>
-        <v>63</v>
-      </c>
-      <c r="L7" s="52">
-        <f>K7/K3</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="51">
-        <f>COUNTIF(H3:H72,J8)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="42">
-        <f>(K8+K9)/K3</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="21">
-        <f>COUNTIF(H3:H72,J9)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" s="21">
-        <f>SUM(F3:F72)</f>
-        <v>35.75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" s="21">
-        <f>8*K11</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="54"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="G84" s="27"/>
+      <c r="H84" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="26" customFormat="1">
+      <c r="B85" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="27">
         <v>0.25</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="29">
+      <c r="G85" s="27"/>
+      <c r="H85" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="26" customFormat="1">
+      <c r="B86" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="27">
         <v>0.25</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="G86" s="27"/>
+      <c r="H86" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" s="26" customFormat="1">
+      <c r="B87" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="29">
-        <v>1</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H30" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H46" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H47" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H48" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="29">
-        <v>1</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="29">
-        <v>1</v>
-      </c>
-      <c r="H54" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="29">
-        <v>1</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H59" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="29">
-        <v>1</v>
-      </c>
-      <c r="H62" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="29">
-        <v>0.25</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="29">
-        <v>1</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="29">
-        <v>1</v>
-      </c>
-      <c r="H65" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H66" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F67" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H67" s="29" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="29">
-        <v>1</v>
-      </c>
-      <c r="H68" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H69" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="29">
-        <v>1</v>
-      </c>
-      <c r="H70" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="29">
-        <v>1</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="29">
-        <v>1</v>
-      </c>
-      <c r="H72" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="H74" s="50"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+    </row>
+    <row r="88" spans="2:8" s="26" customFormat="1">
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D73" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D87" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E73" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E87" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H73" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H87" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5807,27 +6676,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6070,10 +6918,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6090,20 +6970,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB85AF3-BB11-409A-9DB1-609286192DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0CFAA-DB8A-4F51-8AF3-19FE3727354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="1710" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$89</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="245">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1828,6 +1828,21 @@
     <rPh sb="8" eb="10">
       <t>ジッソウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムドロップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2343,7 +2358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2438,6 +2453,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2872,7 +2888,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4536,8 +4552,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F117)</f>
-        <v>46.25</v>
+        <f>SUM(作業工数見積もり!F3:F119)</f>
+        <v>46.75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4580,7 +4596,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45766</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4605,7 +4621,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.63356164383561642</v>
+        <v>0.6404109589041096</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4622,7 +4638,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.6166666666666667</v>
+        <v>0.62333333333333329</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4639,7 +4655,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.52556818181818177</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4722,10 +4738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M88"/>
+  <dimension ref="B2:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4745,7 +4761,7 @@
     <col min="13" max="16384" width="9.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="26" customFormat="1" ht="33.75" thickBot="1">
+    <row r="2" spans="2:13" ht="33.75" thickBot="1">
       <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
@@ -4771,7 +4787,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="2:13" s="26" customFormat="1">
+    <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
         <v>224</v>
       </c>
@@ -4787,7 +4803,6 @@
       <c r="F3" s="27">
         <v>0.25</v>
       </c>
-      <c r="G3" s="27"/>
       <c r="H3" s="27" t="s">
         <v>134</v>
       </c>
@@ -4797,12 +4812,12 @@
       </c>
       <c r="K3" s="36">
         <f>SUM(K4,K5,K6)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13" s="26" customFormat="1">
+    <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
         <v>224</v>
       </c>
@@ -4818,7 +4833,6 @@
       <c r="F4" s="27">
         <v>0.25</v>
       </c>
-      <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
         <v>134</v>
       </c>
@@ -4827,13 +4841,13 @@
         <v>126</v>
       </c>
       <c r="K4" s="40">
-        <f>COUNTIF(E3:E85,J4)</f>
+        <f>COUNTIF(E3:E87,J4)</f>
         <v>43</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" s="26" customFormat="1">
+    <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
         <v>224</v>
       </c>
@@ -4849,7 +4863,6 @@
       <c r="F5" s="27">
         <v>0.25</v>
       </c>
-      <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
         <v>134</v>
       </c>
@@ -4858,13 +4871,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="40">
-        <f>COUNTIF(E3:E85,J5)</f>
-        <v>36</v>
+        <f>COUNTIF(E3:E87,J5)</f>
+        <v>38</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="2:13" s="26" customFormat="1">
+    <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
         <v>224</v>
       </c>
@@ -4880,7 +4893,6 @@
       <c r="F6" s="27">
         <v>0.5</v>
       </c>
-      <c r="G6" s="27"/>
       <c r="H6" s="27" t="s">
         <v>134</v>
       </c>
@@ -4889,13 +4901,13 @@
         <v>127</v>
       </c>
       <c r="K6" s="40">
-        <f>COUNTIF(E3:E85,J6)</f>
+        <f>COUNTIF(E3:E87,J6)</f>
         <v>4</v>
       </c>
       <c r="L6" s="41"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="2:13" s="26" customFormat="1">
+    <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
         <v>224</v>
       </c>
@@ -4911,7 +4923,6 @@
       <c r="F7" s="27">
         <v>1</v>
       </c>
-      <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
         <v>134</v>
       </c>
@@ -4920,7 +4931,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="40">
-        <f>COUNTIF(H3:H85,J7)</f>
+        <f>COUNTIF(H3:H87,J7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="45">
@@ -4929,7 +4940,7 @@
       </c>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="2:13" s="26" customFormat="1">
+    <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
         <v>224</v>
       </c>
@@ -4945,7 +4956,6 @@
       <c r="F8" s="27">
         <v>2</v>
       </c>
-      <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
         <v>134</v>
       </c>
@@ -4954,8 +4964,8 @@
         <v>140</v>
       </c>
       <c r="K8" s="40">
-        <f>COUNTIF(H3:H85,J8)</f>
-        <v>83</v>
+        <f>COUNTIF(H3:H87,J8)</f>
+        <v>85</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
@@ -4963,7 +4973,7 @@
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13" s="26" customFormat="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -4979,7 +4989,6 @@
       <c r="F9" s="27">
         <v>0.25</v>
       </c>
-      <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
         <v>134</v>
       </c>
@@ -4988,13 +4997,13 @@
         <v>141</v>
       </c>
       <c r="K9" s="31">
-        <f>COUNTIF(H3:H85,J9)</f>
+        <f>COUNTIF(H3:H87,J9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13" s="26" customFormat="1">
+    <row r="10" spans="2:13">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
@@ -5010,7 +5019,6 @@
       <c r="F10" s="27">
         <v>1</v>
       </c>
-      <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
         <v>134</v>
       </c>
@@ -5020,7 +5028,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13" s="26" customFormat="1">
+    <row r="11" spans="2:13">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -5036,7 +5044,6 @@
       <c r="F11" s="27">
         <v>0.25</v>
       </c>
-      <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
         <v>134</v>
       </c>
@@ -5045,13 +5052,13 @@
         <v>143</v>
       </c>
       <c r="K11" s="31">
-        <f>SUM(F3:F85)</f>
-        <v>46</v>
+        <f>SUM(F3:F87)</f>
+        <v>46.5</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" s="26" customFormat="1" ht="33.75" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -5067,7 +5074,6 @@
       <c r="F12" s="27">
         <v>0.25</v>
       </c>
-      <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
         <v>134</v>
       </c>
@@ -5077,12 +5083,12 @@
       </c>
       <c r="K12" s="53">
         <f>8*K11</f>
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13" s="26" customFormat="1">
+    <row r="13" spans="2:13">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
@@ -5098,7 +5104,6 @@
       <c r="F13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
         <v>134</v>
       </c>
@@ -5106,7 +5111,7 @@
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:13" s="26" customFormat="1">
+    <row r="14" spans="2:13">
       <c r="B14" s="57" t="s">
         <v>145</v>
       </c>
@@ -5122,12 +5127,11 @@
       <c r="F14" s="27">
         <v>0.25</v>
       </c>
-      <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="26" customFormat="1">
+    <row r="15" spans="2:13">
       <c r="B15" s="57" t="s">
         <v>145</v>
       </c>
@@ -5143,12 +5147,11 @@
       <c r="F15" s="27">
         <v>0.25</v>
       </c>
-      <c r="G15" s="27"/>
       <c r="H15" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="26" customFormat="1">
+    <row r="16" spans="2:13">
       <c r="B16" s="57" t="s">
         <v>145</v>
       </c>
@@ -5164,12 +5167,11 @@
       <c r="F16" s="27">
         <v>0.25</v>
       </c>
-      <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="26" customFormat="1">
+    <row r="17" spans="2:8">
       <c r="B17" s="57" t="s">
         <v>145</v>
       </c>
@@ -5185,12 +5187,11 @@
       <c r="F17" s="27">
         <v>0.5</v>
       </c>
-      <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="26" customFormat="1">
+    <row r="18" spans="2:8">
       <c r="B18" s="57" t="s">
         <v>145</v>
       </c>
@@ -5206,12 +5207,11 @@
       <c r="F18" s="27">
         <v>1</v>
       </c>
-      <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="26" customFormat="1">
+    <row r="19" spans="2:8">
       <c r="B19" s="57" t="s">
         <v>145</v>
       </c>
@@ -5227,12 +5227,11 @@
       <c r="F19" s="27">
         <v>1</v>
       </c>
-      <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="26" customFormat="1">
+    <row r="20" spans="2:8">
       <c r="B20" s="57" t="s">
         <v>145</v>
       </c>
@@ -5248,12 +5247,11 @@
       <c r="F20" s="27">
         <v>1</v>
       </c>
-      <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="26" customFormat="1">
+    <row r="21" spans="2:8">
       <c r="B21" s="57" t="s">
         <v>145</v>
       </c>
@@ -5269,12 +5267,11 @@
       <c r="F21" s="27">
         <v>1</v>
       </c>
-      <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="26" customFormat="1">
+    <row r="22" spans="2:8">
       <c r="B22" s="57" t="s">
         <v>145</v>
       </c>
@@ -5290,12 +5287,11 @@
       <c r="F22" s="27">
         <v>0.5</v>
       </c>
-      <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="26" customFormat="1">
+    <row r="23" spans="2:8">
       <c r="B23" s="57" t="s">
         <v>145</v>
       </c>
@@ -5311,12 +5307,11 @@
       <c r="F23" s="27">
         <v>0.5</v>
       </c>
-      <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="26" customFormat="1">
+    <row r="24" spans="2:8">
       <c r="B24" s="57" t="s">
         <v>145</v>
       </c>
@@ -5332,12 +5327,11 @@
       <c r="F24" s="27">
         <v>0.5</v>
       </c>
-      <c r="G24" s="27"/>
       <c r="H24" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="26" customFormat="1">
+    <row r="25" spans="2:8">
       <c r="B25" s="57" t="s">
         <v>145</v>
       </c>
@@ -5353,12 +5347,11 @@
       <c r="F25" s="27">
         <v>0.25</v>
       </c>
-      <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="26" customFormat="1">
+    <row r="26" spans="2:8">
       <c r="B26" s="57" t="s">
         <v>145</v>
       </c>
@@ -5374,12 +5367,11 @@
       <c r="F26" s="27">
         <v>0.25</v>
       </c>
-      <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="26" customFormat="1">
+    <row r="27" spans="2:8">
       <c r="B27" s="57" t="s">
         <v>145</v>
       </c>
@@ -5395,12 +5387,11 @@
       <c r="F27" s="27">
         <v>0.5</v>
       </c>
-      <c r="G27" s="27"/>
       <c r="H27" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="26" customFormat="1">
+    <row r="28" spans="2:8">
       <c r="B28" s="57" t="s">
         <v>145</v>
       </c>
@@ -5416,12 +5407,11 @@
       <c r="F28" s="27">
         <v>1</v>
       </c>
-      <c r="G28" s="27"/>
       <c r="H28" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="26" customFormat="1">
+    <row r="29" spans="2:8">
       <c r="B29" s="58" t="s">
         <v>149</v>
       </c>
@@ -5437,12 +5427,11 @@
       <c r="F29" s="27">
         <v>0.5</v>
       </c>
-      <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="26" customFormat="1">
+    <row r="30" spans="2:8">
       <c r="B30" s="58" t="s">
         <v>149</v>
       </c>
@@ -5458,12 +5447,11 @@
       <c r="F30" s="27">
         <v>1</v>
       </c>
-      <c r="G30" s="27"/>
       <c r="H30" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="26" customFormat="1">
+    <row r="31" spans="2:8">
       <c r="B31" s="58" t="s">
         <v>149</v>
       </c>
@@ -5479,12 +5467,11 @@
       <c r="F31" s="27">
         <v>0.5</v>
       </c>
-      <c r="G31" s="27"/>
       <c r="H31" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="26" customFormat="1">
+    <row r="32" spans="2:8">
       <c r="B32" s="58" t="s">
         <v>149</v>
       </c>
@@ -5500,12 +5487,11 @@
       <c r="F32" s="27">
         <v>0.25</v>
       </c>
-      <c r="G32" s="27"/>
       <c r="H32" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="26" customFormat="1">
+    <row r="33" spans="2:8">
       <c r="B33" s="59" t="s">
         <v>178</v>
       </c>
@@ -5521,12 +5507,11 @@
       <c r="F33" s="27">
         <v>0.25</v>
       </c>
-      <c r="G33" s="27"/>
       <c r="H33" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="26" customFormat="1">
+    <row r="34" spans="2:8">
       <c r="B34" s="59" t="s">
         <v>178</v>
       </c>
@@ -5542,12 +5527,11 @@
       <c r="F34" s="27">
         <v>0.5</v>
       </c>
-      <c r="G34" s="27"/>
       <c r="H34" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="26" customFormat="1">
+    <row r="35" spans="2:8">
       <c r="B35" s="59" t="s">
         <v>178</v>
       </c>
@@ -5563,12 +5547,11 @@
       <c r="F35" s="27">
         <v>0.25</v>
       </c>
-      <c r="G35" s="27"/>
       <c r="H35" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="26" customFormat="1">
+    <row r="36" spans="2:8">
       <c r="B36" s="59" t="s">
         <v>178</v>
       </c>
@@ -5584,12 +5567,11 @@
       <c r="F36" s="27">
         <v>0.25</v>
       </c>
-      <c r="G36" s="27"/>
       <c r="H36" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="26" customFormat="1">
+    <row r="37" spans="2:8">
       <c r="B37" s="59" t="s">
         <v>178</v>
       </c>
@@ -5605,12 +5587,11 @@
       <c r="F37" s="27">
         <v>2</v>
       </c>
-      <c r="G37" s="27"/>
       <c r="H37" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="26" customFormat="1">
+    <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
         <v>183</v>
       </c>
@@ -5626,12 +5607,11 @@
       <c r="F38" s="27">
         <v>0.5</v>
       </c>
-      <c r="G38" s="27"/>
       <c r="H38" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="26" customFormat="1">
+    <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
         <v>184</v>
       </c>
@@ -5647,12 +5627,11 @@
       <c r="F39" s="27">
         <v>0.5</v>
       </c>
-      <c r="G39" s="27"/>
       <c r="H39" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="26" customFormat="1">
+    <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
         <v>188</v>
       </c>
@@ -5668,12 +5647,11 @@
       <c r="F40" s="27">
         <v>0.5</v>
       </c>
-      <c r="G40" s="27"/>
       <c r="H40" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="26" customFormat="1">
+    <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
         <v>189</v>
       </c>
@@ -5689,12 +5667,11 @@
       <c r="F41" s="27">
         <v>0.5</v>
       </c>
-      <c r="G41" s="27"/>
       <c r="H41" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="26" customFormat="1">
+    <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
         <v>209</v>
       </c>
@@ -5710,12 +5687,11 @@
       <c r="F42" s="27">
         <v>1</v>
       </c>
-      <c r="G42" s="27"/>
       <c r="H42" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="26" customFormat="1">
+    <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
         <v>210</v>
       </c>
@@ -5731,12 +5707,11 @@
       <c r="F43" s="27">
         <v>1</v>
       </c>
-      <c r="G43" s="27"/>
       <c r="H43" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="26" customFormat="1">
+    <row r="44" spans="2:8">
       <c r="B44" s="60" t="s">
         <v>211</v>
       </c>
@@ -5752,12 +5727,11 @@
       <c r="F44" s="27">
         <v>1</v>
       </c>
-      <c r="G44" s="27"/>
       <c r="H44" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="26" customFormat="1">
+    <row r="45" spans="2:8">
       <c r="B45" s="61" t="s">
         <v>234</v>
       </c>
@@ -5773,12 +5747,11 @@
       <c r="F45" s="27">
         <v>0.25</v>
       </c>
-      <c r="G45" s="27"/>
       <c r="H45" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="26" customFormat="1">
+    <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
         <v>234</v>
       </c>
@@ -5794,12 +5767,11 @@
       <c r="F46" s="27">
         <v>0.25</v>
       </c>
-      <c r="G46" s="27"/>
       <c r="H46" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="26" customFormat="1">
+    <row r="47" spans="2:8">
       <c r="B47" s="61" t="s">
         <v>234</v>
       </c>
@@ -5815,12 +5787,11 @@
       <c r="F47" s="27">
         <v>0.5</v>
       </c>
-      <c r="G47" s="27"/>
       <c r="H47" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="26" customFormat="1">
+    <row r="48" spans="2:8">
       <c r="B48" s="61" t="s">
         <v>234</v>
       </c>
@@ -5836,17 +5807,16 @@
       <c r="F48" s="27">
         <v>0.25</v>
       </c>
-      <c r="G48" s="27"/>
       <c r="H48" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="26" customFormat="1">
-      <c r="B49" s="62" t="s">
-        <v>150</v>
+    <row r="49" spans="2:8">
+      <c r="B49" s="70" t="s">
+        <v>242</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>9</v>
@@ -5857,17 +5827,16 @@
       <c r="F49" s="27">
         <v>0.25</v>
       </c>
-      <c r="G49" s="27"/>
       <c r="H49" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="26" customFormat="1">
-      <c r="B50" s="62" t="s">
-        <v>150</v>
+    <row r="50" spans="2:8">
+      <c r="B50" s="70" t="s">
+        <v>242</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>9</v>
@@ -5876,82 +5845,78 @@
         <v>18</v>
       </c>
       <c r="F50" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G50" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H50" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="26" customFormat="1">
+    <row r="51" spans="2:8">
       <c r="B51" s="62" t="s">
         <v>150</v>
       </c>
       <c r="C51" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="27" t="s">
+      <c r="D53" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F53" s="27">
         <v>0.5</v>
       </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="26" customFormat="1">
-      <c r="B52" s="63" t="s">
+      <c r="H53" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C54" s="26" t="s">
         <v>192</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="27">
-        <v>1</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" s="26" customFormat="1">
-      <c r="B53" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="27">
-        <v>1</v>
-      </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" s="26" customFormat="1">
-      <c r="B54" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>9</v>
@@ -5962,143 +5927,136 @@
       <c r="F54" s="27">
         <v>1</v>
       </c>
-      <c r="G54" s="27"/>
       <c r="H54" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="26" customFormat="1">
-      <c r="B55" s="64" t="s">
-        <v>154</v>
+    <row r="55" spans="2:8">
+      <c r="B55" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F55" s="27">
         <v>1</v>
       </c>
-      <c r="G55" s="27"/>
       <c r="H55" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:8" s="26" customFormat="1">
+    <row r="56" spans="2:8">
       <c r="B56" s="64" t="s">
         <v>154</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F56" s="27">
         <v>1</v>
       </c>
-      <c r="G56" s="27"/>
       <c r="H56" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="26" customFormat="1">
+    <row r="57" spans="2:8">
       <c r="B57" s="64" t="s">
         <v>154</v>
       </c>
       <c r="C57" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="27">
+        <v>1</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="27">
+        <v>1</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="27">
+      <c r="D59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="27">
         <v>0.5</v>
       </c>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" s="26" customFormat="1">
-      <c r="B58" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" s="26" customFormat="1">
-      <c r="B59" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G59" s="27"/>
       <c r="H59" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:8" s="26" customFormat="1">
+    <row r="60" spans="2:8">
       <c r="B60" s="65" t="s">
         <v>155</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F60" s="27">
         <v>0.25</v>
       </c>
-      <c r="G60" s="27"/>
       <c r="H60" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:8" s="26" customFormat="1">
+    <row r="61" spans="2:8">
       <c r="B61" s="65" t="s">
         <v>155</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>9</v>
@@ -6107,40 +6065,38 @@
         <v>18</v>
       </c>
       <c r="F61" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G61" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H61" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:8" s="26" customFormat="1">
-      <c r="B62" s="66" t="s">
-        <v>194</v>
+    <row r="62" spans="2:8">
+      <c r="B62" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F62" s="27">
         <v>0.25</v>
       </c>
-      <c r="G62" s="27"/>
       <c r="H62" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="2:8" s="26" customFormat="1">
-      <c r="B63" s="66" t="s">
-        <v>194</v>
+    <row r="63" spans="2:8">
+      <c r="B63" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>9</v>
@@ -6149,19 +6105,18 @@
         <v>18</v>
       </c>
       <c r="F63" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G63" s="27"/>
+        <v>0.5</v>
+      </c>
       <c r="H63" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="2:8" s="26" customFormat="1">
+    <row r="64" spans="2:8">
       <c r="B64" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>9</v>
@@ -6172,17 +6127,16 @@
       <c r="F64" s="27">
         <v>0.25</v>
       </c>
-      <c r="G64" s="27"/>
       <c r="H64" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="26" customFormat="1">
+    <row r="65" spans="2:8">
       <c r="B65" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>9</v>
@@ -6193,38 +6147,36 @@
       <c r="F65" s="27">
         <v>0.25</v>
       </c>
-      <c r="G65" s="27"/>
       <c r="H65" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="26" customFormat="1">
+    <row r="66" spans="2:8">
       <c r="B66" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F66" s="27">
-        <v>1</v>
-      </c>
-      <c r="G66" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H66" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="26" customFormat="1">
+    <row r="67" spans="2:8">
       <c r="B67" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>9</v>
@@ -6233,124 +6185,118 @@
         <v>18</v>
       </c>
       <c r="F67" s="27">
-        <v>1</v>
-      </c>
-      <c r="G67" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H67" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="26" customFormat="1">
+    <row r="68" spans="2:8">
       <c r="B68" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F68" s="27">
         <v>1</v>
       </c>
-      <c r="G68" s="27"/>
       <c r="H68" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8" s="26" customFormat="1">
+    <row r="69" spans="2:8">
       <c r="B69" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F69" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G69" s="27"/>
+        <v>1</v>
+      </c>
       <c r="H69" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:8" s="26" customFormat="1">
+    <row r="70" spans="2:8">
       <c r="B70" s="66" t="s">
         <v>194</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F70" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G70" s="27"/>
+        <v>1</v>
+      </c>
       <c r="H70" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="71" spans="2:8" s="26" customFormat="1">
-      <c r="B71" s="67" t="s">
-        <v>160</v>
+    <row r="71" spans="2:8">
+      <c r="B71" s="66" t="s">
+        <v>194</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F71" s="27">
         <v>0.25</v>
       </c>
-      <c r="G71" s="27"/>
       <c r="H71" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="2:8" s="26" customFormat="1">
-      <c r="B72" s="67" t="s">
-        <v>160</v>
+    <row r="72" spans="2:8">
+      <c r="B72" s="66" t="s">
+        <v>194</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F72" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G72" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H72" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:8" s="26" customFormat="1">
+    <row r="73" spans="2:8">
       <c r="B73" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>9</v>
@@ -6359,19 +6305,18 @@
         <v>18</v>
       </c>
       <c r="F73" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G73" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H73" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:8" s="26" customFormat="1">
+    <row r="74" spans="2:8">
       <c r="B74" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>9</v>
@@ -6382,17 +6327,16 @@
       <c r="F74" s="27">
         <v>0.5</v>
       </c>
-      <c r="G74" s="27"/>
       <c r="H74" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:8" s="26" customFormat="1">
+    <row r="75" spans="2:8">
       <c r="B75" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -6403,17 +6347,16 @@
       <c r="F75" s="27">
         <v>0.5</v>
       </c>
-      <c r="G75" s="27"/>
       <c r="H75" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:8" s="26" customFormat="1">
+    <row r="76" spans="2:8">
       <c r="B76" s="67" t="s">
         <v>160</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -6424,17 +6367,16 @@
       <c r="F76" s="27">
         <v>0.5</v>
       </c>
-      <c r="G76" s="27"/>
       <c r="H76" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="2:8" s="26" customFormat="1">
-      <c r="B77" s="68" t="s">
-        <v>161</v>
+    <row r="77" spans="2:8">
+      <c r="B77" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>9</v>
@@ -6443,19 +6385,18 @@
         <v>18</v>
       </c>
       <c r="F77" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G77" s="27"/>
+        <v>0.5</v>
+      </c>
       <c r="H77" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="2:8" s="26" customFormat="1">
-      <c r="B78" s="68" t="s">
-        <v>161</v>
+    <row r="78" spans="2:8">
+      <c r="B78" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>9</v>
@@ -6464,19 +6405,18 @@
         <v>18</v>
       </c>
       <c r="F78" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G78" s="27"/>
+        <v>0.5</v>
+      </c>
       <c r="H78" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:8" s="26" customFormat="1">
+    <row r="79" spans="2:8">
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="30" t="s">
-        <v>207</v>
+      <c r="C79" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>9</v>
@@ -6485,40 +6425,38 @@
         <v>18</v>
       </c>
       <c r="F79" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G79" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H79" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="2:8" s="26" customFormat="1">
+    <row r="80" spans="2:8">
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F80" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G80" s="27"/>
+        <v>0.25</v>
+      </c>
       <c r="H80" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="2:8" s="26" customFormat="1">
+    <row r="81" spans="2:8">
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="26" t="s">
-        <v>220</v>
+      <c r="C81" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>9</v>
@@ -6529,17 +6467,16 @@
       <c r="F81" s="27">
         <v>0.5</v>
       </c>
-      <c r="G81" s="27"/>
       <c r="H81" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="2:8" s="26" customFormat="1">
+    <row r="82" spans="2:8">
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>9</v>
@@ -6548,61 +6485,58 @@
         <v>62</v>
       </c>
       <c r="F82" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="27">
         <v>0.25</v>
       </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" s="26" customFormat="1">
-      <c r="B83" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" s="26" customFormat="1">
-      <c r="B84" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G84" s="27"/>
       <c r="H84" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="26" customFormat="1">
+    <row r="85" spans="2:8">
       <c r="B85" s="57" t="s">
         <v>138</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>9</v>
@@ -6613,60 +6547,89 @@
       <c r="F85" s="27">
         <v>0.25</v>
       </c>
-      <c r="G85" s="27"/>
       <c r="H85" s="27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="26" customFormat="1">
+    <row r="86" spans="2:8">
       <c r="B86" s="57" t="s">
         <v>138</v>
       </c>
       <c r="C86" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="D86" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F86" s="27">
+      <c r="D88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="27">
         <v>0.25</v>
       </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" s="26" customFormat="1">
-      <c r="B87" s="26" t="s">
+      <c r="H88" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-    </row>
-    <row r="88" spans="2:8" s="26" customFormat="1">
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="69"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="H90" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D87" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D89" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E87" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E89" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H87" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H89" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6676,6 +6639,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6918,28 +6902,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6956,23 +6938,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D0CFAA-DB8A-4F51-8AF3-19FE3727354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6F981-BC09-48F9-8CA4-6387656F8C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1710" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="246">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1844,6 +1844,9 @@
   <si>
     <t>アイテムドロップ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
   </si>
 </sst>
 </file>
@@ -2844,11 +2847,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.2264957264957265</v>
+        <v>0.21544715447154472</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2888,7 +2891,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45767</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2953,11 +2956,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-86</v>
+        <v>-92</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-1.069767441860465</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2984,11 +2987,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-66</v>
+        <v>-72</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-1.393939393939394</v>
+        <v>-1.2777777777777777</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3015,11 +3018,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-55</v>
+        <v>-61</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.6727272727272726</v>
+        <v>-1.5081967213114753</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4562,7 +4565,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H44,"完了",作業工数見積もり!F3:F44)</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>0</v>
+        <v>2.2357723577235773E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4596,7 +4599,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45767</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4617,11 +4620,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.6404109589041096</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4634,11 +4637,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.62333333333333329</v>
+        <v>0.62857142857142856</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4651,11 +4654,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.53125</v>
+        <v>0.53012048192771088</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4738,11 +4741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
   <cols>
@@ -4761,7 +4763,7 @@
     <col min="13" max="16384" width="9.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="33.75" thickBot="1">
+    <row r="2" spans="2:13">
       <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
@@ -4787,7 +4789,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" hidden="1">
       <c r="B3" s="33" t="s">
         <v>224</v>
       </c>
@@ -4817,7 +4819,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" hidden="1">
       <c r="B4" s="33" t="s">
         <v>224</v>
       </c>
@@ -4847,7 +4849,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="33" t="s">
         <v>224</v>
       </c>
@@ -4877,7 +4879,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" hidden="1">
       <c r="B6" s="33" t="s">
         <v>224</v>
       </c>
@@ -4932,11 +4934,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H87,J7)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4965,15 +4967,15 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H87,J8)</f>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>1</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" hidden="1">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -4989,8 +4991,11 @@
       <c r="F9" s="27">
         <v>0.25</v>
       </c>
+      <c r="G9" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H9" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
@@ -5003,7 +5008,7 @@
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
@@ -5019,8 +5024,11 @@
       <c r="F10" s="27">
         <v>1</v>
       </c>
+      <c r="G10" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H10" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5028,7 +5036,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -5044,8 +5052,11 @@
       <c r="F11" s="27">
         <v>0.25</v>
       </c>
+      <c r="G11" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H11" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
@@ -5058,7 +5069,7 @@
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" hidden="1" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -5074,8 +5085,11 @@
       <c r="F12" s="27">
         <v>0.25</v>
       </c>
+      <c r="G12" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H12" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -5088,7 +5102,7 @@
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" hidden="1">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
@@ -5104,8 +5118,11 @@
       <c r="F13" s="27">
         <v>1</v>
       </c>
+      <c r="G13" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H13" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5419,7 +5436,7 @@
         <v>187</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>34</v>
@@ -5631,7 +5648,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" hidden="1">
       <c r="B40" s="60" t="s">
         <v>188</v>
       </c>
@@ -5639,7 +5656,7 @@
         <v>190</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>18</v>
@@ -5651,7 +5668,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" hidden="1">
       <c r="B41" s="60" t="s">
         <v>189</v>
       </c>
@@ -5691,7 +5708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" hidden="1">
       <c r="B43" s="60" t="s">
         <v>210</v>
       </c>
@@ -5711,7 +5728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" hidden="1">
       <c r="B44" s="60" t="s">
         <v>211</v>
       </c>
@@ -5739,7 +5756,7 @@
         <v>235</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E45" s="27" t="s">
         <v>34</v>
@@ -5759,7 +5776,7 @@
         <v>236</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E46" s="27" t="s">
         <v>34</v>
@@ -5771,7 +5788,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" hidden="1">
       <c r="B47" s="61" t="s">
         <v>234</v>
       </c>
@@ -5791,7 +5808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" hidden="1">
       <c r="B48" s="61" t="s">
         <v>234</v>
       </c>
@@ -5799,7 +5816,7 @@
         <v>238</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>18</v>
@@ -5811,7 +5828,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" hidden="1">
       <c r="B49" s="70" t="s">
         <v>242</v>
       </c>
@@ -5819,7 +5836,7 @@
         <v>243</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>18</v>
@@ -5831,7 +5848,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" hidden="1">
       <c r="B50" s="70" t="s">
         <v>242</v>
       </c>
@@ -5839,7 +5856,7 @@
         <v>244</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>18</v>
@@ -5851,7 +5868,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" hidden="1">
       <c r="B51" s="62" t="s">
         <v>150</v>
       </c>
@@ -5871,7 +5888,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" hidden="1">
       <c r="B52" s="62" t="s">
         <v>150</v>
       </c>
@@ -5891,7 +5908,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" hidden="1">
       <c r="B53" s="62" t="s">
         <v>150</v>
       </c>
@@ -5971,7 +5988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" hidden="1">
       <c r="B57" s="64" t="s">
         <v>154</v>
       </c>
@@ -5991,7 +6008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="2:8" hidden="1">
       <c r="B58" s="64" t="s">
         <v>154</v>
       </c>
@@ -6031,7 +6048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" hidden="1">
       <c r="B60" s="65" t="s">
         <v>155</v>
       </c>
@@ -6039,7 +6056,7 @@
         <v>156</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E60" s="27" t="s">
         <v>18</v>
@@ -6051,7 +6068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" hidden="1">
       <c r="B61" s="65" t="s">
         <v>155</v>
       </c>
@@ -6059,7 +6076,7 @@
         <v>157</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>18</v>
@@ -6071,7 +6088,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" hidden="1">
       <c r="B62" s="65" t="s">
         <v>155</v>
       </c>
@@ -6079,7 +6096,7 @@
         <v>158</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>62</v>
@@ -6091,7 +6108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" hidden="1">
       <c r="B63" s="65" t="s">
         <v>155</v>
       </c>
@@ -6111,7 +6128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" hidden="1">
       <c r="B64" s="66" t="s">
         <v>194</v>
       </c>
@@ -6119,7 +6136,7 @@
         <v>195</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>18</v>
@@ -6131,7 +6148,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" hidden="1">
       <c r="B65" s="66" t="s">
         <v>194</v>
       </c>
@@ -6139,7 +6156,7 @@
         <v>197</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>18</v>
@@ -6151,7 +6168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" hidden="1">
       <c r="B66" s="66" t="s">
         <v>194</v>
       </c>
@@ -6159,7 +6176,7 @@
         <v>202</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>18</v>
@@ -6171,7 +6188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" hidden="1">
       <c r="B67" s="66" t="s">
         <v>194</v>
       </c>
@@ -6211,7 +6228,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" hidden="1">
       <c r="B69" s="66" t="s">
         <v>194</v>
       </c>
@@ -6231,7 +6248,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" hidden="1">
       <c r="B70" s="66" t="s">
         <v>194</v>
       </c>
@@ -6291,7 +6308,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" hidden="1">
       <c r="B73" s="67" t="s">
         <v>160</v>
       </c>
@@ -6311,7 +6328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" hidden="1">
       <c r="B74" s="67" t="s">
         <v>160</v>
       </c>
@@ -6331,7 +6348,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" hidden="1">
       <c r="B75" s="67" t="s">
         <v>160</v>
       </c>
@@ -6351,7 +6368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" hidden="1">
       <c r="B76" s="67" t="s">
         <v>160</v>
       </c>
@@ -6371,7 +6388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" hidden="1">
       <c r="B77" s="67" t="s">
         <v>160</v>
       </c>
@@ -6391,7 +6408,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" hidden="1">
       <c r="B78" s="67" t="s">
         <v>160</v>
       </c>
@@ -6411,7 +6428,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" hidden="1">
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
@@ -6431,7 +6448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" hidden="1">
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
@@ -6451,7 +6468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" hidden="1">
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
@@ -6459,7 +6476,7 @@
         <v>207</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>18</v>
@@ -6471,7 +6488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" hidden="1">
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
@@ -6479,7 +6496,7 @@
         <v>164</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>62</v>
@@ -6491,7 +6508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" hidden="1">
       <c r="B83" s="68" t="s">
         <v>161</v>
       </c>
@@ -6511,7 +6528,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" hidden="1">
       <c r="B84" s="68" t="s">
         <v>161</v>
       </c>
@@ -6519,7 +6536,7 @@
         <v>208</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E84" s="27" t="s">
         <v>62</v>
@@ -6531,7 +6548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" hidden="1">
       <c r="B85" s="57" t="s">
         <v>138</v>
       </c>
@@ -6551,7 +6568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" hidden="1">
       <c r="B86" s="57" t="s">
         <v>138</v>
       </c>
@@ -6571,7 +6588,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" hidden="1">
       <c r="B87" s="57" t="s">
         <v>138</v>
       </c>
@@ -6591,7 +6608,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" hidden="1">
       <c r="B88" s="57" t="s">
         <v>138</v>
       </c>
@@ -6611,7 +6628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="2:8" hidden="1">
       <c r="B89" s="26" t="s">
         <v>165</v>
       </c>
@@ -6620,7 +6637,18 @@
       <c r="H90" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H89" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D89" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -6639,27 +6667,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6902,10 +6909,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6922,20 +6961,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B6F981-BC09-48F9-8CA4-6387656F8C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C3E55-DB31-412D-B9BD-22E1936101E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="247">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1847,6 +1847,9 @@
   </si>
   <si>
     <t>完了</t>
+  </si>
+  <si>
+    <t>作業中</t>
   </si>
 </sst>
 </file>
@@ -2847,11 +2850,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.21544715447154472</v>
+        <v>0.20866141732283464</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2891,7 +2894,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45775</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2956,11 +2959,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-92</v>
+        <v>-96</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-1</v>
+        <v>-0.95833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2987,11 +2990,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-72</v>
+        <v>-76</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-1.2777777777777777</v>
+        <v>-1.2105263157894737</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3018,11 +3021,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-61</v>
+        <v>-65</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.5081967213114753</v>
+        <v>-1.4153846153846155</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4565,7 +4568,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H44,"完了",作業工数見積もり!F3:F44)</f>
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4577,11 +4580,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.2357723577235773E-2</v>
+        <v>1.1811023622047244E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4599,7 +4602,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45775</v>
+        <v>45780</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4620,11 +4623,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.6470588235294118</v>
+        <v>0.71825396825396826</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4637,11 +4640,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.62857142857142856</v>
+        <v>0.69615384615384612</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4654,11 +4657,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.53012048192771088</v>
+        <v>0.58012820512820518</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4741,10 +4744,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
   <cols>
@@ -4763,7 +4767,7 @@
     <col min="13" max="16384" width="9.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" ht="33.75" thickBot="1">
       <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
@@ -4789,7 +4793,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="2:13" hidden="1">
+    <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
         <v>224</v>
       </c>
@@ -4819,7 +4823,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13" hidden="1">
+    <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
         <v>224</v>
       </c>
@@ -4849,7 +4853,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" hidden="1">
+    <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
         <v>224</v>
       </c>
@@ -4879,7 +4883,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="2:13" hidden="1">
+    <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
         <v>224</v>
       </c>
@@ -4934,11 +4938,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H87,J7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>5.8823529411764705E-2</v>
+        <v>8.2352941176470587E-2</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4967,15 +4971,15 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H87,J8)</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.94117647058823528</v>
+        <v>0.91764705882352937</v>
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13" hidden="1">
+    <row r="9" spans="2:13">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -5003,12 +5007,12 @@
       </c>
       <c r="K9" s="31">
         <f>COUNTIF(H3:H87,J9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
@@ -5024,11 +5028,8 @@
       <c r="F10" s="27">
         <v>1</v>
       </c>
-      <c r="G10" s="27">
-        <v>0.25</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5036,7 +5037,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -5069,7 +5070,7 @@
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" hidden="1" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -5102,7 +5103,7 @@
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13" hidden="1">
+    <row r="13" spans="2:13">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
@@ -5118,11 +5119,8 @@
       <c r="F13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="27">
-        <v>0.25</v>
-      </c>
       <c r="H13" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5184,8 +5182,11 @@
       <c r="F16" s="27">
         <v>0.25</v>
       </c>
+      <c r="G16" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H16" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -5204,8 +5205,11 @@
       <c r="F17" s="27">
         <v>0.5</v>
       </c>
+      <c r="G17" s="27">
+        <v>0.5</v>
+      </c>
       <c r="H17" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -5648,7 +5652,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1">
+    <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
         <v>188</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1">
+    <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
         <v>189</v>
       </c>
@@ -5708,7 +5712,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1">
+    <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
         <v>210</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1">
+    <row r="44" spans="2:8">
       <c r="B44" s="60" t="s">
         <v>211</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1">
+    <row r="47" spans="2:8">
       <c r="B47" s="61" t="s">
         <v>234</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1">
+    <row r="48" spans="2:8">
       <c r="B48" s="61" t="s">
         <v>234</v>
       </c>
@@ -5828,7 +5832,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1">
+    <row r="49" spans="2:8">
       <c r="B49" s="70" t="s">
         <v>242</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1">
+    <row r="50" spans="2:8">
       <c r="B50" s="70" t="s">
         <v>242</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1">
+    <row r="51" spans="2:8">
       <c r="B51" s="62" t="s">
         <v>150</v>
       </c>
@@ -5884,11 +5888,14 @@
       <c r="F51" s="27">
         <v>0.25</v>
       </c>
+      <c r="G51" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H51" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="62" t="s">
         <v>150</v>
       </c>
@@ -5904,11 +5911,14 @@
       <c r="F52" s="27">
         <v>0.5</v>
       </c>
+      <c r="G52" s="27">
+        <v>0.5</v>
+      </c>
       <c r="H52" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" hidden="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="62" t="s">
         <v>150</v>
       </c>
@@ -5988,7 +5998,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1">
+    <row r="57" spans="2:8">
       <c r="B57" s="64" t="s">
         <v>154</v>
       </c>
@@ -6008,7 +6018,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1">
+    <row r="58" spans="2:8">
       <c r="B58" s="64" t="s">
         <v>154</v>
       </c>
@@ -6048,7 +6058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1">
+    <row r="60" spans="2:8">
       <c r="B60" s="65" t="s">
         <v>155</v>
       </c>
@@ -6068,7 +6078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1">
+    <row r="61" spans="2:8">
       <c r="B61" s="65" t="s">
         <v>155</v>
       </c>
@@ -6088,7 +6098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1">
+    <row r="62" spans="2:8">
       <c r="B62" s="65" t="s">
         <v>155</v>
       </c>
@@ -6108,7 +6118,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1">
+    <row r="63" spans="2:8">
       <c r="B63" s="65" t="s">
         <v>155</v>
       </c>
@@ -6128,7 +6138,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1">
+    <row r="64" spans="2:8">
       <c r="B64" s="66" t="s">
         <v>194</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1">
+    <row r="65" spans="2:8">
       <c r="B65" s="66" t="s">
         <v>194</v>
       </c>
@@ -6168,7 +6178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1">
+    <row r="66" spans="2:8">
       <c r="B66" s="66" t="s">
         <v>194</v>
       </c>
@@ -6188,7 +6198,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1">
+    <row r="67" spans="2:8">
       <c r="B67" s="66" t="s">
         <v>194</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1">
+    <row r="69" spans="2:8">
       <c r="B69" s="66" t="s">
         <v>194</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1">
+    <row r="70" spans="2:8">
       <c r="B70" s="66" t="s">
         <v>194</v>
       </c>
@@ -6308,7 +6318,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1">
+    <row r="73" spans="2:8">
       <c r="B73" s="67" t="s">
         <v>160</v>
       </c>
@@ -6328,7 +6338,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1">
+    <row r="74" spans="2:8">
       <c r="B74" s="67" t="s">
         <v>160</v>
       </c>
@@ -6348,7 +6358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1">
+    <row r="75" spans="2:8">
       <c r="B75" s="67" t="s">
         <v>160</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1">
+    <row r="76" spans="2:8">
       <c r="B76" s="67" t="s">
         <v>160</v>
       </c>
@@ -6388,7 +6398,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1">
+    <row r="77" spans="2:8">
       <c r="B77" s="67" t="s">
         <v>160</v>
       </c>
@@ -6408,7 +6418,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1">
+    <row r="78" spans="2:8">
       <c r="B78" s="67" t="s">
         <v>160</v>
       </c>
@@ -6428,7 +6438,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1">
+    <row r="79" spans="2:8">
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
@@ -6448,7 +6458,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1">
+    <row r="80" spans="2:8">
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
@@ -6468,7 +6478,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1">
+    <row r="81" spans="2:8">
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
@@ -6488,7 +6498,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1">
+    <row r="82" spans="2:8">
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
@@ -6508,7 +6518,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1">
+    <row r="83" spans="2:8">
       <c r="B83" s="68" t="s">
         <v>161</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1">
+    <row r="84" spans="2:8">
       <c r="B84" s="68" t="s">
         <v>161</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1">
+    <row r="85" spans="2:8">
       <c r="B85" s="57" t="s">
         <v>138</v>
       </c>
@@ -6568,7 +6578,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1">
+    <row r="86" spans="2:8">
       <c r="B86" s="57" t="s">
         <v>138</v>
       </c>
@@ -6588,7 +6598,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1">
+    <row r="87" spans="2:8">
       <c r="B87" s="57" t="s">
         <v>138</v>
       </c>
@@ -6608,7 +6618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1">
+    <row r="88" spans="2:8">
       <c r="B88" s="57" t="s">
         <v>138</v>
       </c>
@@ -6628,7 +6638,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1">
+    <row r="89" spans="2:8">
       <c r="B89" s="26" t="s">
         <v>165</v>
       </c>
@@ -6637,18 +6647,7 @@
       <c r="H90" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H89" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="プロト"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="未着手"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:H89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D89" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -6667,6 +6666,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6909,28 +6929,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6947,23 +6965,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C3E55-DB31-412D-B9BD-22E1936101E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A089D6-5E88-489B-AF9E-526EAEB519DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2850,11 +2850,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.20866141732283464</v>
+        <v>0.20542635658914729</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45780</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2959,11 +2959,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-96</v>
+        <v>-98</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.95833333333333337</v>
+        <v>-0.93877551020408168</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2990,11 +2990,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-76</v>
+        <v>-78</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-1.2105263157894737</v>
+        <v>-1.1794871794871795</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3021,11 +3021,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-65</v>
+        <v>-67</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.4153846153846155</v>
+        <v>-1.3731343283582089</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H44,"完了",作業工数見積もり!F3:F44)</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4580,11 +4580,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.1811023622047244E-2</v>
+        <v>1.3565891472868217E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45780</v>
+        <v>45783</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4623,11 +4623,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.71825396825396826</v>
+        <v>0.72580645161290325</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4640,11 +4640,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.69615384615384612</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4657,11 +4657,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.58012820512820518</v>
+        <v>0.58441558441558439</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4746,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4938,11 +4938,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H87,J7)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>8.2352941176470587E-2</v>
+        <v>9.4117647058823528E-2</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4971,11 +4971,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H87,J8)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.91764705882352937</v>
+        <v>0.90588235294117647</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -5588,8 +5588,11 @@
       <c r="F36" s="27">
         <v>0.25</v>
       </c>
+      <c r="G36" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H36" s="27" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -6666,27 +6669,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6929,10 +6911,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6949,20 +6963,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A089D6-5E88-489B-AF9E-526EAEB519DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E41B265-91A2-4D33-BBE8-5C708D60559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$87</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="245">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1232,13 +1232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャンプ攻撃</t>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自分から一定範囲内にプレイヤー入ってから行動開始</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -1303,34 +1296,6 @@
     </rPh>
     <rPh sb="24" eb="27">
       <t>エンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵からの攻撃を受けずにプレイヤーの攻撃を当て続けると火力が上がっていく</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カリョク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2850,11 +2815,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.20542635658914729</v>
+        <v>0.19343065693430658</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2894,7 +2859,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45783</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2959,11 +2924,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-98</v>
+        <v>-106</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.93877551020408168</v>
+        <v>-0.86792452830188682</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2990,11 +2955,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-78</v>
+        <v>-86</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-1.1794871794871795</v>
+        <v>-1.069767441860465</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3021,11 +2986,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-67</v>
+        <v>-75</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.3731343283582089</v>
+        <v>-1.2266666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4558,8 +4523,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F119)</f>
-        <v>46.75</v>
+        <f>SUM(作業工数見積もり!F3:F117)</f>
+        <v>45.25</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4567,8 +4532,8 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H3:H44,"完了",作業工数見積もり!F3:F44)</f>
-        <v>1.75</v>
+        <f>SUMIF(作業工数見積もり!H3:H42,"完了",作業工数見積もり!F3:F42)</f>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4580,11 +4545,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>1.3565891472868217E-2</v>
+        <v>2.9197080291970802E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4602,7 +4567,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45783</v>
+        <v>45795</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4623,11 +4588,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.72580645161290325</v>
+        <v>0.77830188679245282</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4640,11 +4605,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.703125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4657,11 +4622,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.58441558441558439</v>
+        <v>0.60661764705882348</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4744,10 +4709,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M90"/>
+  <dimension ref="B2:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4795,7 +4760,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>133</v>
@@ -4818,14 +4783,14 @@
       </c>
       <c r="K3" s="36">
         <f>SUM(K4,K5,K6)</f>
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>136</v>
@@ -4847,15 +4812,15 @@
         <v>126</v>
       </c>
       <c r="K4" s="40">
-        <f>COUNTIF(E3:E87,J4)</f>
-        <v>43</v>
+        <f>COUNTIF(E3:E85,J4)</f>
+        <v>41</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>137</v>
@@ -4877,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="40">
-        <f>COUNTIF(E3:E87,J5)</f>
+        <f>COUNTIF(E3:E85,J5)</f>
         <v>38</v>
       </c>
       <c r="L5" s="41"/>
@@ -4885,7 +4850,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>138</v>
@@ -4907,7 +4872,7 @@
         <v>127</v>
       </c>
       <c r="K6" s="40">
-        <f>COUNTIF(E3:E87,J6)</f>
+        <f>COUNTIF(E3:E85,J6)</f>
         <v>4</v>
       </c>
       <c r="L6" s="41"/>
@@ -4915,7 +4880,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>139</v>
@@ -4937,18 +4902,18 @@
         <v>35</v>
       </c>
       <c r="K7" s="40">
-        <f>COUNTIF(H3:H87,J7)</f>
-        <v>8</v>
+        <f>COUNTIF(H3:H85,J7)</f>
+        <v>11</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>9.4117647058823528E-2</v>
+        <v>0.13253012048192772</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>154</v>
@@ -4970,12 +4935,12 @@
         <v>140</v>
       </c>
       <c r="K8" s="40">
-        <f>COUNTIF(H3:H87,J8)</f>
-        <v>75</v>
+        <f>COUNTIF(H3:H85,J8)</f>
+        <v>69</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.90588235294117647</v>
+        <v>0.86746987951807231</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -4984,7 +4949,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
@@ -4999,15 +4964,15 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
         <v>141</v>
       </c>
       <c r="K9" s="31">
-        <f>COUNTIF(H3:H87,J9)</f>
-        <v>2</v>
+        <f>COUNTIF(H3:H85,J9)</f>
+        <v>3</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
@@ -5017,7 +4982,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -5029,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5042,7 +5007,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
@@ -5057,15 +5022,15 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
         <v>143</v>
       </c>
       <c r="K11" s="31">
-        <f>SUM(F3:F87)</f>
-        <v>46.5</v>
+        <f>SUM(F3:F85)</f>
+        <v>45</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
@@ -5075,7 +5040,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>9</v>
@@ -5090,7 +5055,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -5098,7 +5063,7 @@
       </c>
       <c r="K12" s="53">
         <f>8*K11</f>
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
@@ -5108,7 +5073,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5120,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5186,7 +5151,7 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -5209,7 +5174,7 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -5229,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -5249,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -5257,7 +5222,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>9</v>
@@ -5277,7 +5242,7 @@
         <v>145</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>9</v>
@@ -5286,7 +5251,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>134</v>
@@ -5297,7 +5262,7 @@
         <v>145</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>9</v>
@@ -5317,7 +5282,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>9</v>
@@ -5337,7 +5302,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>9</v>
@@ -5346,7 +5311,7 @@
         <v>34</v>
       </c>
       <c r="F24" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>134</v>
@@ -5357,7 +5322,7 @@
         <v>145</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>9</v>
@@ -5377,7 +5342,7 @@
         <v>145</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>9</v>
@@ -5386,7 +5351,7 @@
         <v>34</v>
       </c>
       <c r="F26" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>134</v>
@@ -5397,7 +5362,7 @@
         <v>145</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>9</v>
@@ -5406,18 +5371,18 @@
         <v>34</v>
       </c>
       <c r="F27" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="57" t="s">
-        <v>145</v>
+      <c r="B28" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>9</v>
@@ -5437,10 +5402,10 @@
         <v>149</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E29" s="27" t="s">
         <v>34</v>
@@ -5457,7 +5422,7 @@
         <v>149</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -5466,18 +5431,18 @@
         <v>34</v>
       </c>
       <c r="F30" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H30" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="58" t="s">
-        <v>149</v>
+      <c r="B31" s="59" t="s">
+        <v>178</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>9</v>
@@ -5486,27 +5451,27 @@
         <v>34</v>
       </c>
       <c r="F31" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="27">
         <v>0.5</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="27">
-        <v>0.25</v>
       </c>
       <c r="H32" s="27" t="s">
         <v>134</v>
@@ -5517,7 +5482,7 @@
         <v>178</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -5537,7 +5502,7 @@
         <v>178</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -5546,10 +5511,13 @@
         <v>34</v>
       </c>
       <c r="F34" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0.25</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -5557,7 +5525,7 @@
         <v>178</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>180</v>
+        <v>237</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -5566,18 +5534,18 @@
         <v>34</v>
       </c>
       <c r="F35" s="27">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="H35" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="59" t="s">
-        <v>178</v>
+      <c r="B36" s="60" t="s">
+        <v>182</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -5586,21 +5554,18 @@
         <v>34</v>
       </c>
       <c r="F36" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G36" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="59" t="s">
-        <v>178</v>
+      <c r="B37" s="60" t="s">
+        <v>183</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
@@ -5609,7 +5574,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="27">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="27" t="s">
         <v>134</v>
@@ -5617,16 +5582,16 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F38" s="27">
         <v>0.5</v>
@@ -5637,16 +5602,16 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F39" s="27">
         <v>0.5</v>
@@ -5657,19 +5622,19 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F40" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H40" s="27" t="s">
         <v>134</v>
@@ -5677,10 +5642,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -5689,7 +5654,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H41" s="27" t="s">
         <v>134</v>
@@ -5706,7 +5671,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F42" s="27">
         <v>1</v>
@@ -5716,40 +5681,40 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="60" t="s">
-        <v>210</v>
+      <c r="B43" s="61" t="s">
+        <v>232</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F43" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="60" t="s">
-        <v>211</v>
+      <c r="B44" s="61" t="s">
+        <v>232</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F44" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H44" s="27" t="s">
         <v>134</v>
@@ -5757,19 +5722,19 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>235</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F45" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>134</v>
@@ -5777,7 +5742,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>236</v>
@@ -5786,7 +5751,7 @@
         <v>17</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F46" s="27">
         <v>0.25</v>
@@ -5796,34 +5761,34 @@
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="61" t="s">
-        <v>234</v>
+      <c r="B47" s="70" t="s">
+        <v>240</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E47" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H47" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="61" t="s">
-        <v>234</v>
+      <c r="B48" s="70" t="s">
+        <v>240</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>18</v>
@@ -5836,14 +5801,14 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="70" t="s">
-        <v>242</v>
+      <c r="B49" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>18</v>
@@ -5851,28 +5816,34 @@
       <c r="F49" s="27">
         <v>0.25</v>
       </c>
+      <c r="G49" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H49" s="27" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="70" t="s">
-        <v>242</v>
+      <c r="B50" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F50" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="27">
+        <v>0.5</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -5880,73 +5851,67 @@
         <v>150</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F51" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G51" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="62" t="s">
-        <v>150</v>
+      <c r="B52" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F52" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="62" t="s">
-        <v>150</v>
+      <c r="B53" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F53" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="63" t="s">
-        <v>153</v>
+      <c r="B54" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>9</v>
@@ -5962,17 +5927,17 @@
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="63" t="s">
-        <v>153</v>
+      <c r="B55" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F55" s="27">
         <v>1</v>
@@ -5992,7 +5957,7 @@
         <v>9</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F56" s="27">
         <v>1</v>
@@ -6006,56 +5971,56 @@
         <v>154</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F57" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H57" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="64" t="s">
-        <v>154</v>
+      <c r="B58" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F58" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H58" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="64" t="s">
-        <v>154</v>
+      <c r="B59" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F59" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H59" s="27" t="s">
         <v>134</v>
@@ -6066,13 +6031,13 @@
         <v>155</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D60" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F60" s="27">
         <v>0.25</v>
@@ -6086,33 +6051,33 @@
         <v>155</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="65" t="s">
-        <v>155</v>
+      <c r="B62" s="66" t="s">
+        <v>192</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F62" s="27">
         <v>0.25</v>
@@ -6122,20 +6087,20 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="65" t="s">
-        <v>155</v>
+      <c r="B63" s="66" t="s">
+        <v>192</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F63" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H63" s="27" t="s">
         <v>134</v>
@@ -6143,13 +6108,13 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>18</v>
@@ -6163,13 +6128,13 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>18</v>
@@ -6183,19 +6148,19 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F66" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H66" s="27" t="s">
         <v>134</v>
@@ -6203,7 +6168,7 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>216</v>
@@ -6215,7 +6180,7 @@
         <v>18</v>
       </c>
       <c r="F67" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H67" s="27" t="s">
         <v>134</v>
@@ -6223,7 +6188,7 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>217</v>
@@ -6232,7 +6197,7 @@
         <v>9</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F68" s="27">
         <v>1</v>
@@ -6243,19 +6208,19 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F69" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H69" s="27" t="s">
         <v>134</v>
@@ -6263,36 +6228,36 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F70" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H70" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="66" t="s">
-        <v>194</v>
+      <c r="B71" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F71" s="27">
         <v>0.25</v>
@@ -6302,20 +6267,20 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="66" t="s">
-        <v>194</v>
+      <c r="B72" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F72" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H72" s="27" t="s">
         <v>134</v>
@@ -6335,7 +6300,7 @@
         <v>18</v>
       </c>
       <c r="F73" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H73" s="27" t="s">
         <v>134</v>
@@ -6346,7 +6311,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>9</v>
@@ -6366,7 +6331,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -6386,7 +6351,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -6402,11 +6367,11 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="67" t="s">
-        <v>160</v>
+      <c r="B77" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>9</v>
@@ -6415,18 +6380,18 @@
         <v>18</v>
       </c>
       <c r="F77" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H77" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="67" t="s">
-        <v>160</v>
+      <c r="B78" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>9</v>
@@ -6435,7 +6400,7 @@
         <v>18</v>
       </c>
       <c r="F78" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>134</v>
@@ -6445,17 +6410,17 @@
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="26" t="s">
-        <v>162</v>
+      <c r="C79" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F79" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>134</v>
@@ -6466,16 +6431,16 @@
         <v>161</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F80" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H80" s="27" t="s">
         <v>134</v>
@@ -6485,11 +6450,11 @@
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="30" t="s">
-        <v>207</v>
+      <c r="C81" s="26" t="s">
+        <v>218</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E81" s="27" t="s">
         <v>18</v>
@@ -6506,56 +6471,56 @@
         <v>161</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F82" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="27">
         <v>0.5</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="27">
-        <v>0.25</v>
       </c>
       <c r="H84" s="27" t="s">
         <v>134</v>
@@ -6595,71 +6560,31 @@
         <v>18</v>
       </c>
       <c r="F86" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H86" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>134</v>
+      <c r="B87" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="H90" s="69"/>
+      <c r="H88" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H89" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D89" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D87" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E89" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E87" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H89" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H87" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6669,6 +6594,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6911,28 +6857,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6949,23 +6893,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E41B265-91A2-4D33-BBE8-5C708D60559D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF1D0F-EF77-40EC-A601-7B6AB09698D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$90</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="246">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1165,13 +1165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ものを投げる</t>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必殺技ゲージ</t>
     <rPh sb="0" eb="3">
       <t>ヒッサツワザ</t>
@@ -1268,38 +1261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>殴るとひるむし攻撃もあんまりしてこない弱いやつ(近距離)</t>
-    <rPh sb="0" eb="1">
-      <t>ナグ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>殴るとひるむし攻撃もあんまりしてこない弱いやつ(遠距離)</t>
-    <rPh sb="0" eb="1">
-      <t>ナグ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>エンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵3</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -1307,20 +1268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵4</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タフなだけのやつ(近距離)</t>
-    <rPh sb="9" eb="12">
-      <t>キンキョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>場所に合わせてカメラの角度を変える</t>
     <rPh sb="0" eb="2">
       <t>バショ</t>
@@ -1389,13 +1336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マルチプレイヤー(2人まで)</t>
-    <rPh sb="10" eb="11">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューシーン実装</t>
     <rPh sb="7" eb="9">
       <t>ジッソウ</t>
@@ -1499,90 +1439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BOSS2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BOSS3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3パターンの攻撃を距離に応じて使い分ける。弱い。</t>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヨワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4パターンの攻撃を距離に応じて使い分ける。そこそこの強さ。</t>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4パターンの攻撃を距離に応じて使い分ける。強い。</t>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>爆弾を投げてくる(ボマー)</t>
-    <rPh sb="0" eb="2">
-      <t>バクダン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージセレクトシーン実装</t>
     <rPh sb="11" eb="13">
       <t>ジッソウ</t>
@@ -1663,16 +1519,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カプセルとポリゴンの当たり判定と押し戻し</t>
-    <rPh sb="10" eb="11">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カプセルと球の当たり判定と押し戻し</t>
     <rPh sb="5" eb="6">
       <t>キュウ</t>
@@ -1702,29 +1548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>球とポリゴンの当たり判定と押し戻し</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ものをつかむ(調べるも含む)</t>
-    <rPh sb="7" eb="8">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームオーバーシーン実装</t>
     <rPh sb="10" eb="12">
       <t>ジッソウ</t>
@@ -1815,6 +1638,178 @@
   </si>
   <si>
     <t>作業中</t>
+  </si>
+  <si>
+    <t>ダッシュ(回避後にボタン長押しで)</t>
+    <rPh sb="5" eb="8">
+      <t>カイヒゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナガオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近づいて殴る(近距離)</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナグ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾を打ってくる(遠距離)</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾を投げてくる</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薙ぎ払い(回転攻撃)</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カイテンコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS2(第一形態)</t>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速い弾を打ってくる(遠距離)</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS2(第一形態)</t>
+    <rPh sb="6" eb="10">
+      <t>ダイイチケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力が半分を下回ったら形態変化</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シタマワ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ケイタイヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOSS2(第二形態)</t>
+    <rPh sb="7" eb="8">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプセルと矩形の当たり判定と押し戻し</t>
+    <rPh sb="5" eb="7">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>球と矩形の当たり判定と押し戻し</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2815,11 +2810,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.19343065693430658</v>
+        <v>0.18027210884353742</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2859,7 +2854,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45795</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2924,11 +2919,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-106</v>
+        <v>-116</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.86792452830188682</v>
+        <v>-0.7931034482758621</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2955,11 +2950,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-86</v>
+        <v>-96</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-1.069767441860465</v>
+        <v>-0.95833333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2986,11 +2981,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-75</v>
+        <v>-85</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.2266666666666666</v>
+        <v>-1.0823529411764705</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4523,8 +4518,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F117)</f>
-        <v>45.25</v>
+        <f>SUM(作業工数見積もり!F3:F120)</f>
+        <v>44.75</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4532,8 +4527,8 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H3:H42,"完了",作業工数見積もり!F3:F42)</f>
-        <v>4</v>
+        <f>SUMIF(作業工数見積もり!H3:H45,"完了",作業工数見積もり!F3:F45)</f>
+        <v>4.25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4545,11 +4540,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.9197080291970802E-2</v>
+        <v>2.8911564625850341E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4567,7 +4562,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45795</v>
+        <v>45807</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4588,11 +4583,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.77830188679245282</v>
+        <v>0.92045454545454541</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4605,11 +4600,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.75</v>
+        <v>0.88043478260869568</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4622,11 +4617,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.60661764705882348</v>
+        <v>0.68644067796610164</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4709,10 +4704,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M88"/>
+  <dimension ref="B2:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4760,7 +4755,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>133</v>
@@ -4783,14 +4778,14 @@
       </c>
       <c r="K3" s="36">
         <f>SUM(K4,K5,K6)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>136</v>
@@ -4812,15 +4807,15 @@
         <v>126</v>
       </c>
       <c r="K4" s="40">
-        <f>COUNTIF(E3:E85,J4)</f>
-        <v>41</v>
+        <f>COUNTIF(E3:E88,J4)</f>
+        <v>42</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>137</v>
@@ -4842,15 +4837,15 @@
         <v>1</v>
       </c>
       <c r="K5" s="40">
-        <f>COUNTIF(E3:E85,J5)</f>
-        <v>38</v>
+        <f>COUNTIF(E3:E88,J5)</f>
+        <v>40</v>
       </c>
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>138</v>
@@ -4872,7 +4867,7 @@
         <v>127</v>
       </c>
       <c r="K6" s="40">
-        <f>COUNTIF(E3:E85,J6)</f>
+        <f>COUNTIF(E3:E88,J6)</f>
         <v>4</v>
       </c>
       <c r="L6" s="41"/>
@@ -4880,7 +4875,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>139</v>
@@ -4902,18 +4897,18 @@
         <v>35</v>
       </c>
       <c r="K7" s="40">
-        <f>COUNTIF(H3:H85,J7)</f>
-        <v>11</v>
+        <f>COUNTIF(H3:H88,J7)</f>
+        <v>12</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.13253012048192772</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>154</v>
@@ -4935,12 +4930,12 @@
         <v>140</v>
       </c>
       <c r="K8" s="40">
-        <f>COUNTIF(H3:H85,J8)</f>
-        <v>69</v>
+        <f>COUNTIF(H3:H88,J8)</f>
+        <v>71</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.86746987951807231</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -4949,7 +4944,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
@@ -4964,14 +4959,14 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
         <v>141</v>
       </c>
       <c r="K9" s="31">
-        <f>COUNTIF(H3:H85,J9)</f>
+        <f>COUNTIF(H3:H88,J9)</f>
         <v>3</v>
       </c>
       <c r="L9" s="41"/>
@@ -4982,7 +4977,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -4994,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5007,7 +5002,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
@@ -5022,15 +5017,15 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
         <v>143</v>
       </c>
       <c r="K11" s="31">
-        <f>SUM(F3:F85)</f>
-        <v>45</v>
+        <f>SUM(F3:F88)</f>
+        <v>44.5</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
@@ -5040,7 +5035,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>9</v>
@@ -5055,7 +5050,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -5063,7 +5058,7 @@
       </c>
       <c r="K12" s="53">
         <f>8*K11</f>
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
@@ -5073,7 +5068,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5085,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5116,7 +5111,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -5136,7 +5131,7 @@
         <v>145</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>9</v>
@@ -5147,11 +5142,8 @@
       <c r="F16" s="27">
         <v>0.25</v>
       </c>
-      <c r="G16" s="27">
-        <v>0.25</v>
-      </c>
       <c r="H16" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -5159,7 +5151,7 @@
         <v>145</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>9</v>
@@ -5168,13 +5160,13 @@
         <v>34</v>
       </c>
       <c r="F17" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G17" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -5182,7 +5174,7 @@
         <v>145</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>9</v>
@@ -5191,10 +5183,13 @@
         <v>34</v>
       </c>
       <c r="F18" s="27">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0.5</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -5202,7 +5197,7 @@
         <v>145</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>9</v>
@@ -5214,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -5222,7 +5217,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>9</v>
@@ -5234,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -5242,7 +5237,7 @@
         <v>145</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>9</v>
@@ -5251,7 +5246,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>134</v>
@@ -5262,7 +5257,7 @@
         <v>145</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>9</v>
@@ -5282,7 +5277,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>9</v>
@@ -5291,7 +5286,7 @@
         <v>34</v>
       </c>
       <c r="F23" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>134</v>
@@ -5302,7 +5297,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>9</v>
@@ -5322,7 +5317,7 @@
         <v>145</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>9</v>
@@ -5331,7 +5326,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>134</v>
@@ -5351,27 +5346,27 @@
         <v>34</v>
       </c>
       <c r="F26" s="27">
+        <v>1</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="27">
         <v>0.5</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="27">
-        <v>1</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>134</v>
@@ -5382,7 +5377,7 @@
         <v>149</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>9</v>
@@ -5391,18 +5386,18 @@
         <v>34</v>
       </c>
       <c r="F28" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H28" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="58" t="s">
-        <v>149</v>
+      <c r="B29" s="59" t="s">
+        <v>177</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>9</v>
@@ -5411,27 +5406,27 @@
         <v>34</v>
       </c>
       <c r="F29" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="27">
         <v>0.5</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="27">
-        <v>0.25</v>
       </c>
       <c r="H30" s="27" t="s">
         <v>134</v>
@@ -5439,10 +5434,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>9</v>
@@ -5454,12 +5449,12 @@
         <v>0.25</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>179</v>
@@ -5471,7 +5466,7 @@
         <v>34</v>
       </c>
       <c r="F32" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H32" s="27" t="s">
         <v>134</v>
@@ -5479,7 +5474,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>180</v>
@@ -5493,39 +5488,39 @@
       <c r="F33" s="27">
         <v>0.25</v>
       </c>
+      <c r="G33" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H33" s="27" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="27">
+        <v>2</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G34" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="59" t="s">
-        <v>178</v>
-      </c>
       <c r="C35" s="26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -5534,10 +5529,10 @@
         <v>34</v>
       </c>
       <c r="F35" s="27">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -5545,7 +5540,7 @@
         <v>182</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -5557,7 +5552,7 @@
         <v>0.5</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -5565,13 +5560,13 @@
         <v>183</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F37" s="27">
         <v>0.5</v>
@@ -5582,16 +5577,16 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F38" s="27">
         <v>0.5</v>
@@ -5602,16 +5597,16 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F39" s="27">
         <v>0.5</v>
@@ -5622,10 +5617,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>9</v>
@@ -5634,7 +5629,7 @@
         <v>34</v>
       </c>
       <c r="F40" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H40" s="27" t="s">
         <v>134</v>
@@ -5642,10 +5637,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -5654,7 +5649,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="27" t="s">
         <v>134</v>
@@ -5662,10 +5657,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -5674,67 +5669,67 @@
         <v>18</v>
       </c>
       <c r="F42" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="27">
         <v>1</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="27">
-        <v>0.5</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>134</v>
@@ -5742,16 +5737,16 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F46" s="27">
         <v>0.25</v>
@@ -5761,17 +5756,17 @@
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="70" t="s">
-        <v>240</v>
+      <c r="B47" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F47" s="27">
         <v>0.25</v>
@@ -5781,34 +5776,34 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="70" t="s">
-        <v>240</v>
+      <c r="B48" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H48" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="62" t="s">
-        <v>150</v>
+      <c r="B49" s="61" t="s">
+        <v>217</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>18</v>
@@ -5816,128 +5811,128 @@
       <c r="F49" s="27">
         <v>0.25</v>
       </c>
-      <c r="G49" s="27">
+      <c r="H49" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="27">
         <v>0.25</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="62" t="s">
+      <c r="H50" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="27">
+      <c r="C52" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="G52" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="27">
         <v>0.5</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G53" s="27">
         <v>0.5</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="62" t="s">
+      <c r="H53" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C54" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="27" t="s">
+      <c r="D54" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F54" s="27">
         <v>0.5</v>
       </c>
-      <c r="H51" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="63" t="s">
+      <c r="H54" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="27">
-        <v>1</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="27">
-        <v>1</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="27">
-        <v>1</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="64" t="s">
-        <v>154</v>
-      </c>
       <c r="C55" s="26" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F55" s="27">
         <v>1</v>
@@ -5947,17 +5942,17 @@
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="64" t="s">
-        <v>154</v>
+      <c r="B56" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F56" s="27">
         <v>1</v>
@@ -5971,7 +5966,7 @@
         <v>154</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>9</v>
@@ -5980,67 +5975,67 @@
         <v>34</v>
       </c>
       <c r="F57" s="27">
+        <v>1</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="27">
+        <v>1</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="27">
+        <v>1</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="27">
         <v>0.5</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="27">
-        <v>0.25</v>
       </c>
       <c r="H60" s="27" t="s">
         <v>134</v>
@@ -6051,27 +6046,27 @@
         <v>155</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H61" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="66" t="s">
-        <v>192</v>
+      <c r="B62" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>17</v>
@@ -6087,17 +6082,17 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="66" t="s">
-        <v>192</v>
+      <c r="B63" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F63" s="27">
         <v>0.25</v>
@@ -6107,20 +6102,20 @@
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="66" t="s">
-        <v>192</v>
+      <c r="B64" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H64" s="27" t="s">
         <v>134</v>
@@ -6128,13 +6123,13 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="66" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>18</v>
@@ -6148,19 +6143,19 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="66" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F66" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H66" s="27" t="s">
         <v>134</v>
@@ -6168,19 +6163,19 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="66" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E67" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H67" s="27" t="s">
         <v>134</v>
@@ -6188,10 +6183,10 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="66" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>9</v>
@@ -6200,7 +6195,7 @@
         <v>18</v>
       </c>
       <c r="F68" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H68" s="27" t="s">
         <v>134</v>
@@ -6208,10 +6203,10 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="66" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
@@ -6220,7 +6215,7 @@
         <v>34</v>
       </c>
       <c r="F69" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H69" s="27" t="s">
         <v>134</v>
@@ -6228,79 +6223,79 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="66" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F70" s="27">
+        <v>1</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="27">
+        <v>1</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="27">
         <v>0.25</v>
       </c>
-      <c r="H70" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="27">
+      <c r="H72" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="27">
         <v>0.25</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="27">
-        <v>0.5</v>
       </c>
       <c r="H73" s="27" t="s">
         <v>134</v>
@@ -6311,7 +6306,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>9</v>
@@ -6320,7 +6315,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H74" s="27" t="s">
         <v>134</v>
@@ -6331,7 +6326,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -6351,7 +6346,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -6367,11 +6362,11 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="68" t="s">
-        <v>161</v>
+      <c r="B77" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>9</v>
@@ -6380,18 +6375,18 @@
         <v>18</v>
       </c>
       <c r="F77" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H77" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="68" t="s">
-        <v>161</v>
+      <c r="B78" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>9</v>
@@ -6400,21 +6395,21 @@
         <v>18</v>
       </c>
       <c r="F78" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>205</v>
+      <c r="B79" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>18</v>
@@ -6431,16 +6426,16 @@
         <v>161</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F80" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H80" s="27" t="s">
         <v>134</v>
@@ -6451,7 +6446,7 @@
         <v>161</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>9</v>
@@ -6460,7 +6455,7 @@
         <v>18</v>
       </c>
       <c r="F81" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H81" s="27" t="s">
         <v>134</v>
@@ -6470,48 +6465,48 @@
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F83" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F82" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C83" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>197</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>9</v>
@@ -6527,17 +6522,17 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="57" t="s">
-        <v>138</v>
+      <c r="B85" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F85" s="27">
         <v>0.25</v>
@@ -6551,7 +6546,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>9</v>
@@ -6567,24 +6562,84 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
-      <c r="H88" s="69"/>
+    <row r="91" spans="2:8">
+      <c r="H91" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H87" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H90" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D87" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D90" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E87" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E90" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H87" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H90" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6594,27 +6649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6857,10 +6891,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6877,20 +6943,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF1D0F-EF77-40EC-A601-7B6AB09698D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9997C22-A95E-4209-9FDB-E61C2346A95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2810,11 +2810,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.18027210884353742</v>
+        <v>0.17666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45807</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2919,11 +2919,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-116</v>
+        <v>-119</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.7931034482758621</v>
+        <v>-0.77310924369747902</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2950,11 +2950,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-96</v>
+        <v>-99</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.95833333333333337</v>
+        <v>-0.92929292929292928</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2981,11 +2981,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-85</v>
+        <v>-88</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.0823529411764705</v>
+        <v>-1.0454545454545454</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4502,7 +4502,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H45,"完了",作業工数見積もり!F3:F45)</f>
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4540,11 +4540,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>2.8911564625850341E-2</v>
+        <v>3.1666666666666669E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45807</v>
+        <v>45812</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4578,16 +4578,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <f>DATE(2025,7,30)</f>
-        <v>45868</v>
+        <f>DATE(2025,7,23)</f>
+        <v>45861</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>0.92045454545454541</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4600,11 +4600,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.88043478260869568</v>
+        <v>0.93023255813953487</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4617,11 +4617,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.68644067796610164</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4706,8 +4706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H88,J7)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.13953488372093023</v>
+        <v>0.15116279069767441</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4931,11 +4931,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H88,J8)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.86046511627906974</v>
+        <v>0.84883720930232553</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -5269,7 +5269,7 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -6649,6 +6649,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6891,28 +6912,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6929,23 +6948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9997C22-A95E-4209-9FDB-E61C2346A95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7D8EF-F452-40D7-A756-A4B8A75FDB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業工数見積もり!$C$2:$H$88</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="244">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1161,10 +1161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必殺技ゲージ</t>
     <rPh sb="0" eb="3">
       <t>ヒッサツワザ</t>
@@ -1601,10 +1597,6 @@
     <rPh sb="0" eb="2">
       <t>ブキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPU(AI)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2810,11 +2802,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.17666666666666667</v>
+        <v>0.17549668874172186</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2854,7 +2846,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45812</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2919,11 +2911,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-119</v>
+        <v>-120</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.77310924369747902</v>
+        <v>-0.76666666666666672</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2950,11 +2942,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.92929292929292928</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2981,11 +2973,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.0454545454545454</v>
+        <v>-1.0337078651685394</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4502,7 +4494,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4518,8 +4510,8 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <f>SUM(作業工数見積もり!F3:F120)</f>
-        <v>44.75</v>
+        <f>SUM(作業工数見積もり!F3:F118)</f>
+        <v>42.5</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4527,8 +4519,8 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <f>SUMIF(作業工数見積もり!H3:H45,"完了",作業工数見積もり!F3:F45)</f>
-        <v>4.75</v>
+        <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
+        <v>7.5</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4540,11 +4532,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>3.1666666666666669E-2</v>
+        <v>4.9668874172185427E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4562,7 +4554,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45812</v>
+        <v>45813</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4583,11 +4575,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1111111111111112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4600,11 +4592,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.93023255813953487</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4617,11 +4609,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.7142857142857143</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4704,10 +4696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M91"/>
+  <dimension ref="B2:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4755,7 +4747,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>133</v>
@@ -4778,14 +4770,14 @@
       </c>
       <c r="K3" s="36">
         <f>SUM(K4,K5,K6)</f>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>136</v>
@@ -4807,15 +4799,15 @@
         <v>126</v>
       </c>
       <c r="K4" s="40">
-        <f>COUNTIF(E3:E88,J4)</f>
-        <v>42</v>
+        <f>COUNTIF(E3:E86,J4)</f>
+        <v>40</v>
       </c>
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>137</v>
@@ -4837,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="40">
-        <f>COUNTIF(E3:E88,J5)</f>
+        <f>COUNTIF(E3:E86,J5)</f>
         <v>40</v>
       </c>
       <c r="L5" s="41"/>
@@ -4845,7 +4837,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>138</v>
@@ -4867,7 +4859,7 @@
         <v>127</v>
       </c>
       <c r="K6" s="40">
-        <f>COUNTIF(E3:E88,J6)</f>
+        <f>COUNTIF(E3:E86,J6)</f>
         <v>4</v>
       </c>
       <c r="L6" s="41"/>
@@ -4875,7 +4867,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>139</v>
@@ -4897,18 +4889,18 @@
         <v>35</v>
       </c>
       <c r="K7" s="40">
-        <f>COUNTIF(H3:H88,J7)</f>
-        <v>13</v>
+        <f>COUNTIF(H3:H86,J7)</f>
+        <v>20</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.15116279069767441</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>154</v>
@@ -4930,12 +4922,12 @@
         <v>140</v>
       </c>
       <c r="K8" s="40">
-        <f>COUNTIF(H3:H88,J8)</f>
-        <v>70</v>
+        <f>COUNTIF(H3:H86,J8)</f>
+        <v>63</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.84883720930232553</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -4944,7 +4936,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
@@ -4959,15 +4951,15 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
         <v>141</v>
       </c>
       <c r="K9" s="31">
-        <f>COUNTIF(H3:H88,J9)</f>
-        <v>3</v>
+        <f>COUNTIF(H3:H86,J9)</f>
+        <v>1</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
@@ -4977,7 +4969,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -4989,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5002,7 +4994,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
@@ -5017,15 +5009,15 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
         <v>143</v>
       </c>
       <c r="K11" s="31">
-        <f>SUM(F3:F88)</f>
-        <v>44.5</v>
+        <f>SUM(F3:F86)</f>
+        <v>42.25</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
@@ -5035,7 +5027,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>9</v>
@@ -5050,7 +5042,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -5058,7 +5050,7 @@
       </c>
       <c r="K12" s="53">
         <f>8*K11</f>
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
@@ -5068,7 +5060,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5080,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5103,7 +5095,7 @@
         <v>0.25</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -5111,7 +5103,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -5143,7 +5135,7 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -5166,7 +5158,7 @@
         <v>0.25</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -5189,7 +5181,7 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -5197,7 +5189,7 @@
         <v>145</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>9</v>
@@ -5209,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -5217,7 +5209,7 @@
         <v>145</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>9</v>
@@ -5229,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -5249,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -5269,7 +5261,7 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -5277,7 +5269,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>9</v>
@@ -5289,7 +5281,7 @@
         <v>0.25</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -5297,7 +5289,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>9</v>
@@ -5306,7 +5298,7 @@
         <v>34</v>
       </c>
       <c r="F24" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>134</v>
@@ -5326,18 +5318,18 @@
         <v>34</v>
       </c>
       <c r="F25" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="57" t="s">
-        <v>145</v>
+      <c r="B26" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>9</v>
@@ -5346,7 +5338,7 @@
         <v>34</v>
       </c>
       <c r="F26" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>134</v>
@@ -5366,18 +5358,18 @@
         <v>34</v>
       </c>
       <c r="F27" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="58" t="s">
-        <v>149</v>
+      <c r="B28" s="59" t="s">
+        <v>176</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>9</v>
@@ -5389,16 +5381,16 @@
         <v>0.25</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>146</v>
-      </c>
       <c r="D29" s="27" t="s">
         <v>9</v>
       </c>
@@ -5406,18 +5398,18 @@
         <v>34</v>
       </c>
       <c r="F29" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -5426,18 +5418,18 @@
         <v>34</v>
       </c>
       <c r="F30" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>9</v>
@@ -5454,7 +5446,7 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>179</v>
@@ -5468,16 +5460,19 @@
       <c r="F32" s="27">
         <v>0.25</v>
       </c>
+      <c r="G32" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H32" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="59" t="s">
-        <v>177</v>
+      <c r="B33" s="60" t="s">
+        <v>180</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -5486,21 +5481,18 @@
         <v>34</v>
       </c>
       <c r="F33" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G33" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="59" t="s">
-        <v>177</v>
+      <c r="B34" s="60" t="s">
+        <v>181</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -5509,7 +5501,7 @@
         <v>34</v>
       </c>
       <c r="F34" s="27">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H34" s="27" t="s">
         <v>134</v>
@@ -5517,7 +5509,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>231</v>
@@ -5526,21 +5518,21 @@
         <v>9</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F35" s="27">
         <v>0.5</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="60" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -5557,16 +5549,16 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="60" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F37" s="27">
         <v>0.5</v>
@@ -5577,10 +5569,10 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>9</v>
@@ -5597,16 +5589,16 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F39" s="27">
         <v>0.5</v>
@@ -5626,7 +5618,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F40" s="27">
         <v>0.5</v>
@@ -5640,7 +5632,7 @@
         <v>237</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -5657,10 +5649,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -5677,11 +5669,11 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>240</v>
-      </c>
       <c r="D43" s="27" t="s">
         <v>9</v>
       </c>
@@ -5689,47 +5681,47 @@
         <v>18</v>
       </c>
       <c r="F43" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="60" t="s">
-        <v>242</v>
+      <c r="B44" s="61" t="s">
+        <v>216</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F44" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H44" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="60" t="s">
-        <v>242</v>
+      <c r="B45" s="61" t="s">
+        <v>216</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F45" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>134</v>
@@ -5737,19 +5729,19 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F46" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="27" t="s">
         <v>134</v>
@@ -5757,16 +5749,16 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F47" s="27">
         <v>0.25</v>
@@ -5776,34 +5768,34 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="61" t="s">
-        <v>217</v>
+      <c r="B48" s="70" t="s">
+        <v>223</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E48" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H48" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="61" t="s">
-        <v>217</v>
+      <c r="B49" s="70" t="s">
+        <v>223</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>18</v>
@@ -5816,14 +5808,14 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="70" t="s">
-        <v>225</v>
+      <c r="B50" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>18</v>
@@ -5831,28 +5823,34 @@
       <c r="F50" s="27">
         <v>0.25</v>
       </c>
+      <c r="G50" s="27">
+        <v>0.25</v>
+      </c>
       <c r="H50" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="70" t="s">
-        <v>225</v>
+      <c r="B51" s="62" t="s">
+        <v>150</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F51" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="27">
+        <v>0.5</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -5860,73 +5858,67 @@
         <v>150</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F52" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="G52" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="62" t="s">
-        <v>150</v>
+      <c r="B53" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F53" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="62" t="s">
-        <v>150</v>
+      <c r="B54" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F54" s="27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H54" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="63" t="s">
-        <v>153</v>
+      <c r="B55" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
@@ -5942,17 +5934,17 @@
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="63" t="s">
-        <v>153</v>
+      <c r="B56" s="64" t="s">
+        <v>154</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F56" s="27">
         <v>1</v>
@@ -5966,13 +5958,13 @@
         <v>154</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F57" s="27">
         <v>1</v>
@@ -5986,56 +5978,56 @@
         <v>154</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F58" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H58" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="64" t="s">
-        <v>154</v>
+      <c r="B59" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E59" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F59" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H59" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="64" t="s">
-        <v>154</v>
+      <c r="B60" s="65" t="s">
+        <v>155</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F60" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H60" s="27" t="s">
         <v>134</v>
@@ -6046,13 +6038,13 @@
         <v>155</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D61" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F61" s="27">
         <v>0.25</v>
@@ -6066,33 +6058,33 @@
         <v>155</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F62" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H62" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="65" t="s">
-        <v>155</v>
+      <c r="B63" s="66" t="s">
+        <v>186</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F63" s="27">
         <v>0.25</v>
@@ -6102,20 +6094,20 @@
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="65" t="s">
-        <v>155</v>
+      <c r="B64" s="66" t="s">
+        <v>186</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E64" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F64" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H64" s="27" t="s">
         <v>134</v>
@@ -6123,13 +6115,13 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>18</v>
@@ -6143,13 +6135,13 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E66" s="27" t="s">
         <v>18</v>
@@ -6163,19 +6155,19 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F67" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H67" s="27" t="s">
         <v>134</v>
@@ -6183,10 +6175,10 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>9</v>
@@ -6195,7 +6187,7 @@
         <v>18</v>
       </c>
       <c r="F68" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H68" s="27" t="s">
         <v>134</v>
@@ -6203,16 +6195,16 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F69" s="27">
         <v>1</v>
@@ -6223,19 +6215,19 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F70" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H70" s="27" t="s">
         <v>134</v>
@@ -6243,36 +6235,36 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F71" s="27">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H71" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="66" t="s">
-        <v>187</v>
+      <c r="B72" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F72" s="27">
         <v>0.25</v>
@@ -6282,20 +6274,20 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="66" t="s">
-        <v>187</v>
+      <c r="B73" s="67" t="s">
+        <v>160</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F73" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H73" s="27" t="s">
         <v>134</v>
@@ -6306,7 +6298,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>9</v>
@@ -6315,7 +6307,7 @@
         <v>18</v>
       </c>
       <c r="F74" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H74" s="27" t="s">
         <v>134</v>
@@ -6326,7 +6318,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -6346,7 +6338,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -6366,7 +6358,7 @@
         <v>160</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>9</v>
@@ -6382,11 +6374,11 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="67" t="s">
-        <v>160</v>
+      <c r="B78" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>9</v>
@@ -6395,18 +6387,18 @@
         <v>18</v>
       </c>
       <c r="F78" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="67" t="s">
-        <v>160</v>
+      <c r="B79" s="68" t="s">
+        <v>161</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>9</v>
@@ -6415,7 +6407,7 @@
         <v>18</v>
       </c>
       <c r="F79" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H79" s="27" t="s">
         <v>134</v>
@@ -6425,17 +6417,17 @@
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="26" t="s">
-        <v>162</v>
+      <c r="C80" s="30" t="s">
+        <v>198</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E80" s="27" t="s">
         <v>18</v>
       </c>
       <c r="F80" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H80" s="27" t="s">
         <v>134</v>
@@ -6446,16 +6438,16 @@
         <v>161</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F81" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H81" s="27" t="s">
         <v>134</v>
@@ -6465,11 +6457,11 @@
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>199</v>
+      <c r="C82" s="26" t="s">
+        <v>205</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>18</v>
@@ -6486,27 +6478,27 @@
         <v>161</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E83" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F83" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H83" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="68" t="s">
-        <v>161</v>
+      <c r="B84" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>9</v>
@@ -6515,27 +6507,27 @@
         <v>18</v>
       </c>
       <c r="F84" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H84" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="68" t="s">
-        <v>161</v>
+      <c r="B85" s="57" t="s">
+        <v>138</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F85" s="27">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H85" s="27" t="s">
         <v>134</v>
@@ -6546,7 +6538,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>9</v>
@@ -6566,7 +6558,7 @@
         <v>138</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>9</v>
@@ -6575,71 +6567,31 @@
         <v>18</v>
       </c>
       <c r="F87" s="27">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H87" s="27" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>134</v>
+      <c r="B88" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="H91" s="69"/>
+      <c r="H89" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H90" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D90" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D88" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
       <formula1>"S,A,B,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E90" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E88" xr:uid="{8982FD40-CA4D-4B92-93FE-B37B6B67ACD6}">
       <formula1>"プロト,アルファ,ベータ,マスタ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H90" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H88" xr:uid="{E1CFE88F-4F87-4696-BE21-1133C2AEB8C1}">
       <formula1>"未着手,作業中,完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6649,27 +6601,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6912,10 +6843,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6932,20 +6895,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7D8EF-F452-40D7-A756-A4B8A75FDB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB4ACE-3D03-4AA3-AA42-087281EE9FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,16 +1632,6 @@
     <t>作業中</t>
   </si>
   <si>
-    <t>ダッシュ(回避後にボタン長押しで)</t>
-    <rPh sb="5" eb="8">
-      <t>カイヒゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナガオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近づいて殴る(近距離)</t>
     <rPh sb="0" eb="1">
       <t>チカ</t>
@@ -1801,6 +1791,10 @@
     <rPh sb="8" eb="10">
       <t>ハンテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4494,7 +4488,7 @@
   <dimension ref="B3:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4604,16 +4598,16 @@
         <v>30</v>
       </c>
       <c r="C12" s="1">
-        <f>DATE(2025,8,20)</f>
-        <v>45889</v>
+        <f>DATE(2025,8,22)</f>
+        <v>45891</v>
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.63636363636363635</v>
+        <v>0.61403508771929827</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4699,7 +4693,7 @@
   <dimension ref="B2:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4969,7 +4963,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -5060,7 +5054,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5103,7 +5097,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -5409,7 +5403,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -5472,7 +5466,7 @@
         <v>180</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -5492,7 +5486,7 @@
         <v>181</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -5512,7 +5506,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -5532,7 +5526,7 @@
         <v>200</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -5552,7 +5546,7 @@
         <v>200</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
@@ -5569,10 +5563,10 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>9</v>
@@ -5589,10 +5583,10 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
@@ -5609,10 +5603,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>236</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>9</v>
@@ -5629,10 +5623,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>238</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -5649,10 +5643,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>240</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>241</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -5669,10 +5663,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>9</v>
@@ -6601,6 +6595,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6843,28 +6858,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6881,23 +6894,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FB4ACE-3D03-4AA3-AA42-087281EE9FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAA734F-876E-4C67-A06D-4C8F17982284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.17549668874172186</v>
+        <v>0.17434210526315788</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45813</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-120</v>
+        <v>-121</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.76666666666666672</v>
+        <v>-0.76033057851239672</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-100</v>
+        <v>-101</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.92</v>
+        <v>-0.91089108910891092</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.0337078651685394</v>
+        <v>-1.0222222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>4.9668874172185427E-2</v>
+        <v>6.0855263157894739E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45813</v>
+        <v>45816</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1</v>
+        <v>1.0075757575757576</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.83333333333333337</v>
+        <v>0.83125000000000004</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.61403508771929827</v>
+        <v>0.6045454545454545</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4690,10 +4690,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4713,7 +4714,7 @@
     <col min="13" max="16384" width="9.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="33.75" thickBot="1">
+    <row r="2" spans="2:13">
       <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
@@ -4739,7 +4740,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" hidden="1">
       <c r="B3" s="33" t="s">
         <v>209</v>
       </c>
@@ -4769,7 +4770,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" hidden="1">
       <c r="B4" s="33" t="s">
         <v>209</v>
       </c>
@@ -4799,7 +4800,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="33" t="s">
         <v>209</v>
       </c>
@@ -4829,7 +4830,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" hidden="1">
       <c r="B6" s="33" t="s">
         <v>209</v>
       </c>
@@ -4884,11 +4885,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.23809523809523808</v>
+        <v>0.27380952380952384</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4917,15 +4918,15 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.76190476190476186</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" hidden="1">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
@@ -4983,7 +4984,7 @@
       <c r="L10" s="41"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -5016,7 +5017,7 @@
       <c r="L11" s="41"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="2:13" ht="33.75" thickBot="1">
+    <row r="12" spans="2:13" ht="33.75" hidden="1" thickBot="1">
       <c r="B12" s="48" t="s">
         <v>142</v>
       </c>
@@ -5072,7 +5073,7 @@
       <c r="K13" s="56"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" hidden="1">
       <c r="B14" s="57" t="s">
         <v>145</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" hidden="1">
       <c r="B15" s="57" t="s">
         <v>145</v>
       </c>
@@ -5109,10 +5110,10 @@
         <v>0.25</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="57" t="s">
         <v>145</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" hidden="1">
       <c r="B17" s="57" t="s">
         <v>145</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" hidden="1">
       <c r="B18" s="57" t="s">
         <v>145</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" hidden="1">
       <c r="B19" s="57" t="s">
         <v>145</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" hidden="1">
       <c r="B20" s="57" t="s">
         <v>145</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" hidden="1">
       <c r="B21" s="57" t="s">
         <v>145</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" hidden="1">
       <c r="B22" s="57" t="s">
         <v>145</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" hidden="1">
       <c r="B23" s="57" t="s">
         <v>145</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" hidden="1">
       <c r="B25" s="57" t="s">
         <v>145</v>
       </c>
@@ -5315,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -5358,7 +5359,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" hidden="1">
       <c r="B28" s="59" t="s">
         <v>176</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" hidden="1">
       <c r="B29" s="59" t="s">
         <v>176</v>
       </c>
@@ -5398,7 +5399,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" hidden="1">
       <c r="B30" s="59" t="s">
         <v>176</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" hidden="1">
       <c r="B32" s="59" t="s">
         <v>176</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" hidden="1">
       <c r="B33" s="60" t="s">
         <v>180</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" hidden="1">
       <c r="B34" s="60" t="s">
         <v>181</v>
       </c>
@@ -5498,10 +5499,10 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="60" t="s">
         <v>182</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" hidden="1">
       <c r="B39" s="60" t="s">
         <v>234</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" hidden="1">
       <c r="B40" s="60" t="s">
         <v>234</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" hidden="1">
       <c r="B41" s="60" t="s">
         <v>236</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" hidden="1">
       <c r="B42" s="60" t="s">
         <v>239</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" hidden="1">
       <c r="B43" s="60" t="s">
         <v>239</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" hidden="1">
       <c r="B46" s="61" t="s">
         <v>216</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" hidden="1">
       <c r="B47" s="61" t="s">
         <v>216</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" hidden="1">
       <c r="B48" s="70" t="s">
         <v>223</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="2:8" hidden="1">
       <c r="B49" s="70" t="s">
         <v>223</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="2:8" hidden="1">
       <c r="B50" s="62" t="s">
         <v>150</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="2:8" hidden="1">
       <c r="B51" s="62" t="s">
         <v>150</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="2:8" hidden="1">
       <c r="B52" s="62" t="s">
         <v>150</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="2:8" hidden="1">
       <c r="B56" s="64" t="s">
         <v>154</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="2:8" hidden="1">
       <c r="B57" s="64" t="s">
         <v>154</v>
       </c>
@@ -5987,7 +5988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="2:8" hidden="1">
       <c r="B59" s="65" t="s">
         <v>155</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="2:8" hidden="1">
       <c r="B60" s="65" t="s">
         <v>155</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="2:8" hidden="1">
       <c r="B61" s="65" t="s">
         <v>155</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="2:8" hidden="1">
       <c r="B62" s="65" t="s">
         <v>155</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="2:8" hidden="1">
       <c r="B63" s="66" t="s">
         <v>186</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="2:8" hidden="1">
       <c r="B64" s="66" t="s">
         <v>186</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" hidden="1">
       <c r="B65" s="66" t="s">
         <v>186</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" hidden="1">
       <c r="B66" s="66" t="s">
         <v>186</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" hidden="1">
       <c r="B68" s="66" t="s">
         <v>186</v>
       </c>
@@ -6187,7 +6188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" hidden="1">
       <c r="B69" s="66" t="s">
         <v>186</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" hidden="1">
       <c r="B72" s="67" t="s">
         <v>160</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" hidden="1">
       <c r="B73" s="67" t="s">
         <v>160</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" hidden="1">
       <c r="B74" s="67" t="s">
         <v>160</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" hidden="1">
       <c r="B75" s="67" t="s">
         <v>160</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" hidden="1">
       <c r="B76" s="67" t="s">
         <v>160</v>
       </c>
@@ -6347,7 +6348,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" hidden="1">
       <c r="B77" s="67" t="s">
         <v>160</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" hidden="1">
       <c r="B78" s="68" t="s">
         <v>161</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" hidden="1">
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" hidden="1">
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="2:8">
+    <row r="81" spans="2:8" hidden="1">
       <c r="B81" s="68" t="s">
         <v>161</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="2:8">
+    <row r="82" spans="2:8" hidden="1">
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:8" hidden="1">
       <c r="B83" s="68" t="s">
         <v>161</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:8">
+    <row r="84" spans="2:8" hidden="1">
       <c r="B84" s="57" t="s">
         <v>138</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="2:8">
+    <row r="85" spans="2:8" hidden="1">
       <c r="B85" s="57" t="s">
         <v>138</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:8">
+    <row r="86" spans="2:8" hidden="1">
       <c r="B86" s="57" t="s">
         <v>138</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="2:8">
+    <row r="87" spans="2:8" hidden="1">
       <c r="B87" s="57" t="s">
         <v>138</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="2:8" hidden="1">
       <c r="B88" s="26" t="s">
         <v>165</v>
       </c>
@@ -6576,7 +6577,19 @@
       <c r="H89" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="プロト"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="作業中"/>
+        <filter val="未着手"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D88" xr:uid="{AF10AFEC-2E3A-4CB7-ABD8-6255C47E78C2}">
@@ -6595,27 +6608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6858,10 +6850,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6878,20 +6902,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAA734F-876E-4C67-A06D-4C8F17982284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F753D1-9710-432D-9AF5-5CAF698AE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.17434210526315788</v>
+        <v>0.17320261437908496</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45816</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-121</v>
+        <v>-122</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.76033057851239672</v>
+        <v>-0.75409836065573765</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-101</v>
+        <v>-102</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.91089108910891092</v>
+        <v>-0.90196078431372551</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-90</v>
+        <v>-91</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.0222222222222221</v>
+        <v>-1.0109890109890109</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4526,11 +4526,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>6.0855263157894739E-2</v>
+        <v>6.0457516339869281E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45816</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4693,7 +4693,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
@@ -6608,6 +6608,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6850,28 +6871,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6888,23 +6907,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F753D1-9710-432D-9AF5-5CAF698AE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C31C0-5FA2-4187-ADE5-4EECA0166B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -1280,22 +1280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>場所に合わせてカメラの位置を変える</t>
-    <rPh sb="0" eb="2">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カメラに影響を与える位置にプレイヤーが来た時に情報を与える</t>
     <rPh sb="4" eb="6">
       <t>エイキョウ</t>
@@ -1795,6 +1779,22 @@
   </si>
   <si>
     <t>ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのX座標に合わせてカメラの位置を変える</t>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.17320261437908496</v>
+        <v>0.17096774193548386</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45817</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-122</v>
+        <v>-124</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.75409836065573765</v>
+        <v>-0.74193548387096775</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-102</v>
+        <v>-104</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.90196078431372551</v>
+        <v>-0.88461538461538458</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-91</v>
+        <v>-93</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-1.0109890109890109</v>
+        <v>-0.989247311827957</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4487,7 +4487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>6.0457516339869281E-2</v>
+        <v>6.6129032258064518E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45817</v>
+        <v>45819</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.0075757575757576</v>
+        <v>1.0403225806451613</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.83125000000000004</v>
+        <v>0.84868421052631582</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.6045454545454545</v>
+        <v>0.60849056603773588</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4693,8 +4693,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="3" spans="2:13" hidden="1">
       <c r="B3" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>133</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="4" spans="2:13" hidden="1">
       <c r="B4" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>136</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>137</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="6" spans="2:13" hidden="1">
       <c r="B6" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>138</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>139</v>
@@ -4885,17 +4885,17 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.27380952380952384</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="M7" s="38"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>154</v>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.72619047619047616</v>
+        <v>0.69047619047619047</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -4931,7 +4931,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
@@ -4946,7 +4946,7 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
@@ -4964,7 +4964,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -4989,7 +4989,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
@@ -5004,7 +5004,7 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
@@ -5022,7 +5022,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>9</v>
@@ -5037,7 +5037,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -5055,7 +5055,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5090,7 +5090,7 @@
         <v>0.25</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="2:13" hidden="1">
@@ -5098,7 +5098,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -5110,7 +5110,7 @@
         <v>0.25</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="2:13" hidden="1">
@@ -5130,7 +5130,7 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:8" hidden="1">
@@ -5153,7 +5153,7 @@
         <v>0.25</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="2:8" hidden="1">
@@ -5176,7 +5176,7 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:8" hidden="1">
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:8" hidden="1">
@@ -5216,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="2:8" hidden="1">
@@ -5236,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:8" hidden="1">
@@ -5256,7 +5256,7 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="2:8" hidden="1">
@@ -5276,7 +5276,7 @@
         <v>0.25</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -5376,7 +5376,7 @@
         <v>0.25</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:8" hidden="1">
@@ -5396,7 +5396,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:8" hidden="1">
@@ -5404,7 +5404,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -5416,7 +5416,7 @@
         <v>0.25</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -5459,7 +5459,7 @@
         <v>0.25</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="2:8" hidden="1">
@@ -5467,7 +5467,7 @@
         <v>180</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -5479,7 +5479,7 @@
         <v>0.5</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="2:8" hidden="1">
@@ -5487,7 +5487,7 @@
         <v>181</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -5499,7 +5499,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="2:8" hidden="1">
@@ -5507,7 +5507,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -5539,15 +5539,15 @@
         <v>0.5</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
@@ -5559,15 +5559,15 @@
         <v>0.5</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>9</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="39" spans="2:8" hidden="1">
       <c r="B39" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
@@ -5604,10 +5604,10 @@
     </row>
     <row r="40" spans="2:8" hidden="1">
       <c r="B40" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>9</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="41" spans="2:8" hidden="1">
       <c r="B41" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>237</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="42" spans="2:8" hidden="1">
       <c r="B42" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="43" spans="2:8" hidden="1">
       <c r="B43" s="60" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>9</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>216</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>217</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>17</v>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>17</v>
@@ -5724,10 +5724,10 @@
     </row>
     <row r="46" spans="2:8" hidden="1">
       <c r="B46" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>9</v>
@@ -5744,10 +5744,10 @@
     </row>
     <row r="47" spans="2:8" hidden="1">
       <c r="B47" s="61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>17</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="48" spans="2:8" hidden="1">
       <c r="B48" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>223</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>224</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>25</v>
@@ -5784,10 +5784,10 @@
     </row>
     <row r="49" spans="2:8" hidden="1">
       <c r="B49" s="70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>25</v>
@@ -5822,7 +5822,7 @@
         <v>0.25</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:8" hidden="1">
@@ -5830,7 +5830,7 @@
         <v>150</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>9</v>
@@ -5845,7 +5845,7 @@
         <v>0.5</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="2:8" hidden="1">
@@ -5865,7 +5865,7 @@
         <v>0.5</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="2:8">
@@ -5873,7 +5873,7 @@
         <v>153</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>9</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -5913,7 +5913,7 @@
         <v>154</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
@@ -5933,7 +5933,7 @@
         <v>154</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>9</v>
@@ -5953,7 +5953,7 @@
         <v>154</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>9</v>
@@ -5973,7 +5973,7 @@
         <v>154</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>9</v>
@@ -6070,10 +6070,10 @@
     </row>
     <row r="63" spans="2:8" hidden="1">
       <c r="B63" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>187</v>
       </c>
       <c r="D63" s="27" t="s">
         <v>17</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="64" spans="2:8" hidden="1">
       <c r="B64" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>17</v>
@@ -6110,10 +6110,10 @@
     </row>
     <row r="65" spans="2:8" hidden="1">
       <c r="B65" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>25</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="66" spans="2:8" hidden="1">
       <c r="B66" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>9</v>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>9</v>
@@ -6170,10 +6170,10 @@
     </row>
     <row r="68" spans="2:8" hidden="1">
       <c r="B68" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>9</v>
@@ -6190,10 +6190,10 @@
     </row>
     <row r="69" spans="2:8" hidden="1">
       <c r="B69" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>9</v>
@@ -6210,10 +6210,10 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
@@ -6230,10 +6230,10 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>9</v>
@@ -6253,7 +6253,7 @@
         <v>160</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>9</v>
@@ -6273,7 +6273,7 @@
         <v>160</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>9</v>
@@ -6293,7 +6293,7 @@
         <v>160</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>9</v>
@@ -6313,7 +6313,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -6353,7 +6353,7 @@
         <v>160</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>9</v>
@@ -6413,7 +6413,7 @@
         <v>161</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>25</v>
@@ -6453,7 +6453,7 @@
         <v>161</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>9</v>
@@ -6473,7 +6473,7 @@
         <v>161</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>17</v>
@@ -6493,7 +6493,7 @@
         <v>138</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>9</v>
@@ -6513,7 +6513,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>9</v>
@@ -6533,7 +6533,7 @@
         <v>138</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D86" s="27" t="s">
         <v>9</v>
@@ -6553,7 +6553,7 @@
         <v>138</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>9</v>
@@ -6608,27 +6608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6871,10 +6850,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6891,20 +6902,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5C31C0-5FA2-4187-ADE5-4EECA0166B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF419B-E2FD-42D7-9258-3ABC24DA82E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.17096774193548386</v>
+        <v>0.16878980891719744</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45819</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-124</v>
+        <v>-126</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.74193548387096775</v>
+        <v>-0.73015873015873012</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-104</v>
+        <v>-106</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.88461538461538458</v>
+        <v>-0.86792452830188682</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-93</v>
+        <v>-95</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.989247311827957</v>
+        <v>-0.96842105263157896</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4487,7 +4487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224174C6-79B8-40DF-BFBC-1FA41083861E}">
   <dimension ref="B3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>6.6129032258064518E-2</v>
+        <v>6.5286624203821655E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45819</v>
+        <v>45822</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.0403225806451613</v>
+        <v>1.1517857142857142</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.84868421052631582</v>
+        <v>0.92142857142857137</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.60849056603773588</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4693,7 +4693,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -5522,7 +5522,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" hidden="1">
       <c r="B36" s="60" t="s">
         <v>199</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" hidden="1">
       <c r="B37" s="60" t="s">
         <v>199</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="2:8" hidden="1">
       <c r="B53" s="63" t="s">
         <v>153</v>
       </c>
@@ -6608,6 +6608,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6850,28 +6871,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6888,23 +6907,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACF419B-E2FD-42D7-9258-3ABC24DA82E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68195C9-4306-4AD6-8B0D-30345817472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16878980891719744</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45822</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2905,11 +2905,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-126</v>
+        <v>-128</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.73015873015873012</v>
+        <v>-0.71875</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2936,11 +2936,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-106</v>
+        <v>-108</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.86792452830188682</v>
+        <v>-0.85185185185185186</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2967,11 +2967,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-95</v>
+        <v>-97</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.96842105263157896</v>
+        <v>-0.94845360824742264</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>6.5286624203821655E-2</v>
+        <v>6.761006289308176E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45822</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4569,11 +4569,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1517857142857142</v>
+        <v>1.1759259259259258</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.92142857142857137</v>
+        <v>0.93382352941176472</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4603,11 +4603,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.64500000000000002</v>
+        <v>0.64795918367346939</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4693,8 +4693,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4714,7 +4714,7 @@
     <col min="13" max="16384" width="9.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" ht="33.75" thickBot="1">
       <c r="B2" s="28" t="s">
         <v>129</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="K2" s="32"/>
       <c r="L2" s="32"/>
     </row>
-    <row r="3" spans="2:13" hidden="1">
+    <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
         <v>208</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="L3" s="37"/>
       <c r="M3" s="38"/>
     </row>
-    <row r="4" spans="2:13" hidden="1">
+    <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
         <v>208</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="L4" s="41"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="2:13" hidden="1">
+    <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
         <v>208</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="L5" s="41"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="2:13" hidden="1">
+    <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
         <v>208</v>
       </c>
@@ -4885,11 +4885,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.30952380952380953</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4918,11 +4918,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.69047619047619047</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -5502,7 +5502,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1">
+    <row r="35" spans="2:8">
       <c r="B35" s="60" t="s">
         <v>182</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" hidden="1">
       <c r="B38" s="60" t="s">
         <v>231</v>
       </c>
@@ -5579,10 +5579,10 @@
         <v>0.5</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" hidden="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
         <v>233</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1">
+    <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
         <v>233</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1">
+    <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
         <v>235</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1">
+    <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
         <v>238</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1">
+    <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
         <v>238</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
+    <row r="46" spans="2:8">
       <c r="B46" s="61" t="s">
         <v>215</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1">
+    <row r="47" spans="2:8">
       <c r="B47" s="61" t="s">
         <v>215</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1">
+    <row r="48" spans="2:8">
       <c r="B48" s="70" t="s">
         <v>222</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1">
+    <row r="49" spans="2:8">
       <c r="B49" s="70" t="s">
         <v>222</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1">
+    <row r="56" spans="2:8">
       <c r="B56" s="64" t="s">
         <v>154</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1">
+    <row r="57" spans="2:8">
       <c r="B57" s="64" t="s">
         <v>154</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1">
+    <row r="59" spans="2:8">
       <c r="B59" s="65" t="s">
         <v>155</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1">
+    <row r="60" spans="2:8">
       <c r="B60" s="65" t="s">
         <v>155</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1">
+    <row r="62" spans="2:8">
       <c r="B62" s="65" t="s">
         <v>155</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1">
+    <row r="63" spans="2:8">
       <c r="B63" s="66" t="s">
         <v>185</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1">
+    <row r="64" spans="2:8">
       <c r="B64" s="66" t="s">
         <v>185</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1">
+    <row r="65" spans="2:8">
       <c r="B65" s="66" t="s">
         <v>185</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1">
+    <row r="66" spans="2:8">
       <c r="B66" s="66" t="s">
         <v>185</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1">
+    <row r="68" spans="2:8">
       <c r="B68" s="66" t="s">
         <v>185</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1">
+    <row r="69" spans="2:8">
       <c r="B69" s="66" t="s">
         <v>185</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1">
+    <row r="72" spans="2:8">
       <c r="B72" s="67" t="s">
         <v>160</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1">
+    <row r="73" spans="2:8">
       <c r="B73" s="67" t="s">
         <v>160</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1">
+    <row r="74" spans="2:8">
       <c r="B74" s="67" t="s">
         <v>160</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1">
+    <row r="75" spans="2:8">
       <c r="B75" s="67" t="s">
         <v>160</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1">
+    <row r="76" spans="2:8">
       <c r="B76" s="67" t="s">
         <v>160</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1">
+    <row r="77" spans="2:8">
       <c r="B77" s="67" t="s">
         <v>160</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1">
+    <row r="78" spans="2:8">
       <c r="B78" s="68" t="s">
         <v>161</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1">
+    <row r="79" spans="2:8">
       <c r="B79" s="68" t="s">
         <v>161</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="2:8" hidden="1">
+    <row r="80" spans="2:8">
       <c r="B80" s="68" t="s">
         <v>161</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1">
+    <row r="82" spans="2:8">
       <c r="B82" s="68" t="s">
         <v>161</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1">
+    <row r="84" spans="2:8">
       <c r="B84" s="57" t="s">
         <v>138</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1">
+    <row r="85" spans="2:8">
       <c r="B85" s="57" t="s">
         <v>138</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1">
+    <row r="86" spans="2:8">
       <c r="B86" s="57" t="s">
         <v>138</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1">
+    <row r="87" spans="2:8">
       <c r="B87" s="57" t="s">
         <v>138</v>
       </c>
@@ -6580,6 +6580,7 @@
   <autoFilter ref="C2:H88" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="アルファ"/>
         <filter val="プロト"/>
       </filters>
     </filterColumn>
@@ -6608,27 +6609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6871,10 +6851,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6891,20 +6903,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68195C9-4306-4AD6-8B0D-30345817472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490274AE-1F5F-4F43-BD79-83C34FCEE2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="243">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1611,9 +1611,6 @@
   </si>
   <si>
     <t>完了</t>
-  </si>
-  <si>
-    <t>作業中</t>
   </si>
   <si>
     <t>近づいて殴る(近距離)</t>
@@ -2796,11 +2793,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16666666666666666</v>
+        <v>0.16562499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2840,7 +2837,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45825</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2905,11 +2902,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-128</v>
+        <v>-129</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.71875</v>
+        <v>-0.71317829457364346</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2936,11 +2933,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-108</v>
+        <v>-109</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.85185185185185186</v>
+        <v>-0.84403669724770647</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2967,11 +2964,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.94845360824742264</v>
+        <v>-0.93877551020408168</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4514,7 +4511,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>10.75</v>
+        <v>14.25</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4526,11 +4523,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>6.761006289308176E-2</v>
+        <v>8.9062500000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4548,7 +4545,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45825</v>
+        <v>45826</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4569,11 +4566,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1759259259259258</v>
+        <v>1.0865384615384615</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4586,11 +4583,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.93382352941176472</v>
+        <v>0.85606060606060608</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4603,11 +4600,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.64795918367346939</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4693,8 +4690,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4877,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="44" t="s">
@@ -4885,11 +4882,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.32142857142857145</v>
+        <v>0.36904761904761907</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4918,11 +4915,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.6785714285714286</v>
+        <v>0.63095238095238093</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -4954,7 +4951,7 @@
       </c>
       <c r="K9" s="31">
         <f>COUNTIF(H3:H86,J9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
@@ -4964,7 +4961,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -4976,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5055,7 +5052,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5067,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5098,7 +5095,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -5296,7 +5293,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="2:8" hidden="1">
@@ -5404,7 +5401,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -5467,7 +5464,7 @@
         <v>180</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -5487,7 +5484,7 @@
         <v>181</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -5507,7 +5504,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -5527,7 +5524,7 @@
         <v>199</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -5547,7 +5544,7 @@
         <v>199</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
@@ -5564,10 +5561,10 @@
     </row>
     <row r="38" spans="2:8" hidden="1">
       <c r="B38" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>231</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>232</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>9</v>
@@ -5584,10 +5581,10 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
@@ -5604,10 +5601,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>233</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>234</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>9</v>
@@ -5624,10 +5621,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>236</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -5644,10 +5641,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>238</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>239</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -5664,10 +5661,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>9</v>
@@ -5873,7 +5870,7 @@
         <v>153</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>9</v>
@@ -6609,6 +6606,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6851,28 +6869,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6889,23 +6905,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490274AE-1F5F-4F43-BD79-83C34FCEE2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD964AB-91C0-4EC8-B1B3-ED932670287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="4065" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
     <sheet name="概要" sheetId="5" r:id="rId2"/>
     <sheet name="作業工数見積もり" sheetId="1" r:id="rId3"/>
+    <sheet name="クラス設計" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1125_元データ'!$B$2:$G$106</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="251">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1791,6 +1792,59 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクター(基底クラス)</t>
+    <rPh sb="5" eb="7">
+      <t>キテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ってるもの</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理由</t>
+    <rPh sb="0" eb="2">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突判定(Collidable)</t>
+    <rPh sb="0" eb="4">
+      <t>ショウトツハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やられ判定(HurtPoint)</t>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消滅フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>識別番号</t>
+    <rPh sb="0" eb="4">
+      <t>シキベツバンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1882,7 +1936,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2060,6 +2114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,7 +2367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2403,6 +2463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2412,6 +2475,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF33CCFF"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FF00FFFF"/>
@@ -2420,7 +2484,6 @@
       <color rgb="FFFF7C80"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF9933FF"/>
-      <color rgb="FF33CCFF"/>
       <color rgb="FF99FF33"/>
     </mruColors>
   </colors>
@@ -2793,11 +2856,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16562499999999999</v>
+        <v>0.16459627329192547</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2837,7 +2900,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45826</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2902,11 +2965,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-129</v>
+        <v>-130</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.71317829457364346</v>
+        <v>-0.70769230769230773</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2933,11 +2996,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-109</v>
+        <v>-110</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.84403669724770647</v>
+        <v>-0.83636363636363631</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2964,11 +3027,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.93877551020408168</v>
+        <v>-0.92929292929292928</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4523,11 +4586,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.9062500000000003E-2</v>
+        <v>8.8509316770186336E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4545,7 +4608,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45826</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4566,11 +4629,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.0865384615384615</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4583,11 +4646,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.85606060606060608</v>
+        <v>0.8828125</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4600,11 +4663,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.58854166666666663</v>
+        <v>0.60106382978723405</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4690,7 +4753,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -6605,28 +6668,64 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="C4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -6869,10 +6968,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6889,20 +7020,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD964AB-91C0-4EC8-B1B3-ED932670287D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE64490-2818-4F46-A7BC-5699B7A6F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="4065" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="4065" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16459627329192547</v>
+        <v>0.16358024691358025</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45827</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2965,11 +2965,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-130</v>
+        <v>-131</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.70769230769230773</v>
+        <v>-0.70229007633587781</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2996,11 +2996,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-110</v>
+        <v>-111</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.83636363636363631</v>
+        <v>-0.8288288288288288</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3027,11 +3027,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-99</v>
+        <v>-100</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.92929292929292928</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4586,11 +4586,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.8509316770186336E-2</v>
+        <v>8.7962962962962965E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45827</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4629,11 +4629,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1299999999999999</v>
+        <v>1.1770833333333333</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4646,11 +4646,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.8828125</v>
+        <v>0.91129032258064513</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.60106382978723405</v>
+        <v>0.61413043478260865</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4753,8 +4753,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4920,7 +4920,7 @@
       <c r="L6" s="41"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" hidden="1">
       <c r="B7" s="33" t="s">
         <v>208</v>
       </c>
@@ -4945,11 +4945,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.36904761904761907</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -4978,11 +4978,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.63095238095238093</v>
+        <v>0.61904761904761907</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -5019,7 +5019,7 @@
       <c r="L9" s="41"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="48" t="s">
         <v>142</v>
       </c>
@@ -5110,7 +5110,7 @@
       <c r="L12" s="54"/>
       <c r="M12" s="38"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" hidden="1">
       <c r="B13" s="48" t="s">
         <v>142</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" hidden="1">
       <c r="B24" s="57" t="s">
         <v>145</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>0.25</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:8">
@@ -6646,7 +6646,6 @@
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="作業中"/>
         <filter val="未着手"/>
       </filters>
     </filterColumn>
@@ -6672,7 +6671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6969,6 +6968,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -6978,15 +6986,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7009,6 +7008,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7017,12 +7024,4 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE64490-2818-4F46-A7BC-5699B7A6F4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2364064-1BE4-433E-96A1-C4D3765A36AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="4065" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="254">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1810,10 +1810,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タグ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>理由</t>
     <rPh sb="0" eb="2">
       <t>リユウ</t>
@@ -1845,6 +1841,52 @@
     <t>識別番号</t>
     <rPh sb="0" eb="4">
       <t>シキベツバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターを動かすため</t>
+    <rPh sb="7" eb="8">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージを受けるため</t>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力がなくなったら消したい</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体の数や特定のアクターを指定する際に使う</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4753,7 +4795,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -6669,17 +6711,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
@@ -6687,7 +6729,7 @@
         <v>243</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -6695,27 +6737,34 @@
         <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" t="s">
         <v>247</v>
       </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" t="s">
         <v>248</v>
       </c>
+      <c r="D5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
       <c r="C6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="C7" t="s">
-        <v>250</v>
+      <c r="D6" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6968,15 +7017,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -6986,6 +7026,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7008,14 +7057,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7024,4 +7065,12 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2364064-1BE4-433E-96A1-C4D3765A36AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7969A-AA65-437F-B905-342A106F624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45828</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.7962962962962965E-2</v>
+        <v>8.9506172839506168E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45828</v>
+        <v>45830</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4671,11 +4671,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1770833333333333</v>
+        <v>1.2173913043478262</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4688,11 +4688,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.91129032258064513</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4705,11 +4705,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.61413043478260865</v>
+        <v>0.62222222222222223</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4795,8 +4795,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4987,11 +4987,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.38095238095238093</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -5020,11 +5020,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.61904761904761907</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -5521,7 +5521,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" hidden="1">
       <c r="B31" s="59" t="s">
         <v>176</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0.25</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:8" hidden="1">
@@ -5784,7 +5784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" hidden="1">
       <c r="B44" s="61" t="s">
         <v>215</v>
       </c>
@@ -6713,7 +6713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7017,6 +7017,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -7026,15 +7035,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7057,6 +7057,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7065,12 +7073,4 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\Summer2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7969A-AA65-437F-B905-342A106F624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F311F-9160-41A9-A3CA-9A878AD42AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2898,11 +2898,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16358024691358025</v>
+        <v>0.16257668711656442</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45830</v>
+        <v>45831</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3007,11 +3007,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-131</v>
+        <v>-132</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.70229007633587781</v>
+        <v>-0.69696969696969702</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-111</v>
+        <v>-112</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.8288288288288288</v>
+        <v>-0.8214285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3069,11 +3069,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-100</v>
+        <v>-101</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.92</v>
+        <v>-0.91089108910891092</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C4">
         <f>SUMIF(作業工数見積もり!H3:H43,"完了",作業工数見積もり!F3:F43)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>8.9506172839506168E-2</v>
+        <v>9.202453987730061E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45830</v>
+        <v>45831</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.2173913043478262</v>
+        <v>1.1956521739130435</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.93333333333333335</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.62222222222222223</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4796,7 +4796,7 @@
   <dimension ref="B2:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -4987,11 +4987,11 @@
       </c>
       <c r="K7" s="40">
         <f>COUNTIF(H3:H86,J7)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="45">
         <f>K7/K3</f>
-        <v>0.39285714285714285</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M7" s="38"/>
     </row>
@@ -5020,11 +5020,11 @@
       </c>
       <c r="K8" s="40">
         <f>COUNTIF(H3:H86,J8)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L8" s="47">
         <f>(K8+K9)/K3</f>
-        <v>0.6071428571428571</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="M8" s="38"/>
     </row>
@@ -5604,7 +5604,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" hidden="1">
       <c r="B35" s="60" t="s">
         <v>182</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="2:8" hidden="1">
@@ -5824,7 +5824,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" hidden="1">
       <c r="B46" s="61" t="s">
         <v>215</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>0.5</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="2:8">
@@ -7017,15 +7017,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -7035,6 +7026,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7057,14 +7057,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7073,4 +7065,12 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67F311F-9160-41A9-A3CA-9A878AD42AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4635A7-25F0-49B8-91D8-5D24940EB456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="275">
   <si>
     <t>1コスト:3時間 (1日は基本2コスト)</t>
     <phoneticPr fontId="1"/>
@@ -1888,6 +1888,149 @@
     <rPh sb="19" eb="20">
       <t>ツカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターマネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突判定と押し戻しをするクラス</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の処理をするクラス</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターの配列</t>
+    <rPh sb="5" eb="7">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム(アクター)生成クラス</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクターを管理するため</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを生成してそれをこのクラス内で管理したいから</t>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突処理をするため</t>
+    <rPh sb="0" eb="4">
+      <t>ショウトツショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーや敵、爆弾から攻撃判定が出るためその処理をしたい</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>コウゲキハンテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理してもらう</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョンマネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョンチェッカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コリジョンプロセス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Physicsにしてしまってもいいかも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コライダーデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リジッドボディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attackManager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やられ判定(HurtPoint)</t>
+  </si>
+  <si>
+    <t>攻撃（コライダブル）</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1899,7 +2042,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,8 +2120,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2165,8 +2316,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2402,6 +2559,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2409,7 +2683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2505,9 +2779,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -2538,6 +2823,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1381080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1873920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>224265</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="インク 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA99456-03FF-82B1-5612-A262D06F657C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3057480" y="1590480"/>
+            <a:ext cx="492840" cy="795960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="インク 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA99456-03FF-82B1-5612-A262D06F657C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3051360" y="1584409"/>
+              <a:ext cx="505080" cy="808101"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>94740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2205225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>94830</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="インク 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD073B34-868E-FB3B-3668-8D6DF7FE8A8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8810280" y="818640"/>
+            <a:ext cx="2796120" cy="971640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="インク 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD073B34-868E-FB3B-3668-8D6DF7FE8A8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8804164" y="812558"/>
+              <a:ext cx="2808352" cy="983803"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-24T00:24:43.399"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">794 1 24575,'0'63'0,"-2"-21"0,2 1 0,3-1 0,12 74 0,-8-71 0,-2 2 0,-1-1 0,-3 0 0,-5 51 0,1 11 0,3-58 0,-1 7 0,2 1 0,15 97 0,-7-92 0,-4 0 0,-2 1 0,-6 74 0,0-13 0,3 356 0,0-475 0,-1 0 0,1 1 0,-1-1 0,-1 1 0,1-1 0,-5 11 0,6-16 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,-1 0 0,0 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-2-2 0,-9-17-1365,1 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="915.44">0 1335 24575,'9'0'0,"0"1"0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 1 0,1-1 0,-1 1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,11 11 0,8 11 0,-2 0 0,33 51 0,-22-30 0,131 181 0,-105-141 0,77 151 0,-133-231 0,1 1 0,-1-1 0,2 0 0,-1-1 0,13 13 0,-18-19 0,0 0 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,3-2 0,3-4 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-1-1 0,0 1 0,-1-1 0,4-10 0,20-80 0,-23 77 0,1 1 0,0 0 0,1 0 0,17-32 0,4 1 0,-18 31 0,1 1 0,1 1 0,0 0 0,20-22 0,-10 15 0,36-57 0,-38 53 0,39-47 0,-29 47 0,0 2 0,65-47 0,-89 70-170,0-1-1,-1 1 0,1-2 1,-1 1-1,0-1 0,-1 1 1,5-10-1,-1 1-6655</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-24T00:34:16.669"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.68">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2898,11 +3378,11 @@
       </c>
       <c r="K4" s="2">
         <f ca="1">NETWORKDAYS(K5,K6)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L4" s="3">
         <f ca="1" xml:space="preserve"> K3 / K4</f>
-        <v>0.16257668711656442</v>
+        <v>0.16158536585365854</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2942,7 +3422,7 @@
       </c>
       <c r="K6" s="1">
         <f ca="1">TODAY()</f>
-        <v>45831</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3007,11 +3487,11 @@
       </c>
       <c r="L9" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K9)</f>
-        <v>-132</v>
+        <v>-133</v>
       </c>
       <c r="M9" s="3">
         <f ca="1">($K$2 - $K$3) / L9</f>
-        <v>-0.69696969696969702</v>
+        <v>-0.69172932330827064</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3038,11 +3518,11 @@
       </c>
       <c r="L10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K10)</f>
-        <v>-112</v>
+        <v>-113</v>
       </c>
       <c r="M10" s="3">
         <f ca="1">($K$2 - $K$3) / L10</f>
-        <v>-0.8214285714285714</v>
+        <v>-0.81415929203539827</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3069,11 +3549,11 @@
       </c>
       <c r="L11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),K11)</f>
-        <v>-101</v>
+        <v>-102</v>
       </c>
       <c r="M11" s="3">
         <f ca="1">($K$2 - $K$3) / L11</f>
-        <v>-0.91089108910891092</v>
+        <v>-0.90196078431372551</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4628,11 +5108,11 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">NETWORKDAYS(C6,C7)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3">
         <f ca="1" xml:space="preserve"> C4 / C5</f>
-        <v>9.202453987730061E-2</v>
+        <v>9.1463414634146339E-2</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4650,7 +5130,7 @@
       </c>
       <c r="C7" s="1">
         <f ca="1">TODAY()</f>
-        <v>45831</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4671,11 +5151,11 @@
       </c>
       <c r="D10" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C10)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">($C$3 - $C$4) / D10</f>
-        <v>1.1956521739130435</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4688,11 +5168,11 @@
       </c>
       <c r="D11" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C11)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">($C$3 - $C$4) / D11</f>
-        <v>0.91666666666666663</v>
+        <v>0.94827586206896552</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4705,11 +5185,11 @@
       </c>
       <c r="D12" s="2">
         <f ca="1">NETWORKDAYS(TODAY(),C12)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">($C$3 - $C$4) / D12</f>
-        <v>0.61111111111111116</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -4795,7 +5275,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -6711,65 +7191,181 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="C2" s="71" t="s">
+    <row r="1" spans="2:8" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
         <v>243</v>
       </c>
       <c r="D2" s="73" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="72" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="76" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="C4" t="s">
+      <c r="F3" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="76" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="C5" t="s">
+      <c r="F4" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B5" s="74"/>
+      <c r="C5" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="76" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="C6" t="s">
+      <c r="F5" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="79" t="s">
         <v>253</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="19.5" thickBot="1">
+      <c r="F11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="74"/>
+      <c r="C14" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="74"/>
+      <c r="C15" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B16" s="77"/>
+      <c r="C16" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7017,6 +7613,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
@@ -7026,15 +7631,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7057,6 +7653,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7065,12 +7669,4 @@
     <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Summer2コスト表_井上恋.xlsx
+++ b/Summer2コスト表_井上恋.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\井上　恋\Documents\GitHub\Summer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4635A7-25F0-49B8-91D8-5D24940EB456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33757378-45E6-4B3B-AE85-EBD0F0B6A045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1125_元データ" sheetId="4" r:id="rId1"/>
@@ -1448,22 +1448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ステージ1はチュートリアルを入れる(看板的なもので)。ゲームの進行は止めない。</t>
-    <rPh sb="14" eb="15">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>カンバンテキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ1設計</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2031,6 +2015,25 @@
   </si>
   <si>
     <t>エントリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ1はチュートリアルを入れる(看板的なもので)。ゲームの進行は初回のみ止める</t>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カンバンテキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2683,7 +2686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2783,12 +2786,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -2840,8 +2841,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>224265</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="インク 3">
@@ -2860,7 +2861,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="インク 3">
@@ -2905,8 +2906,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>94830</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="インク 8">
@@ -2925,7 +2926,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="インク 8">
@@ -3015,7 +3016,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3654 2265 24575,'-31'0'0,"-1"1"0,1 2 0,-44 9 0,27-5 0,0-2 0,0-1 0,-90-7 0,32 0 0,-107 17 0,-9-1 0,-473-14-570,663-1 570,0-1 0,0-2 0,-42-11 0,39 7 0,0 2 0,-46-4 0,2 4-296,-124-29-1,100 15 365,24 6-68,0-2 0,-109-41 0,33 1-99,-142-63-168,243 94-776,8 4-1413,-54-34 0,47 23 3124,28 18 685,1 0-1,-40-34 1,58 43-1146,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,1 0 0,-1 0-1,1-1 1,1 0 0,0 1 0,-4-18 0,5 14-207,-8-36 0,2 0 0,-2-84 0,10 117 0,0-25 0,9-68 0,-7 94 0,1 0 0,1 0 0,0 1 0,1-1 0,1 1 0,0 0 0,0 1 0,13-18 0,23-32-452,64-83 1134,-88 123-2643,2 2 0,28-24 0,41-35 347,28-23 1558,-19 35 1888,2 4 0,188-87 0,-178 104-2326,2 5 0,1 4 0,131-23 0,-138 33-2142,-63 15 1568,1 2-1,55-6 1,90-1 963,479-21-635,-504 37 1171,239 9-1340,-327-3 2278,0 5 0,-1 2 0,93 29 1,-56-9-509,-49-16 1,0 4 1,75 34-1,-32-2-793,-2 5 0,96 70 0,-123-66 873,89 91 0,-140-126-991,35 33 49,103 128 0,-45-10 0,-106-155 0,0 1 0,-2 0 0,-1 1 0,-1 0 0,0 1 0,-2 0 0,7 47 0,-3-8 0,-6-36 0,0 0 0,0 37 0,-4 7-1213,-4 124-4358,-1-163 5571,-1 0 0,-16 56 0,-39 48-756,53-117 1900,-1-1 1,0-1-1,-1 1 0,-1-1 0,-1-1 0,-18 23 1,-18 16-1615,31-42 470,1 0 0,-2-1 0,0 0 0,0-2 0,-1 0 0,-33 14 0,-138 66 0,165-80 0,-1-2 0,0 0 0,0-2 0,-47 8 0,34-7 0,-42 13 0,11 4 0,20-7 0,-73 18 0,43-12 0,61-17 0,0-1 0,-1 0 0,-29 3 0,-31 4 0,54-8 0,0-1 0,-30 0 0,45-4 0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,0 1 0,1-1 0,-1-1 0,-9-5 0,-27-13-109,7 3-310,2-1 1,-65-45-1,86 52-6407</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="809.61">5190 1439 24575,'8'1'0,"1"0"0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0 1 0,-1-1 0,0 1 0,12 10 0,42 24 0,10 0 0,-45-24 0,44 19 0,-53-27 0,0 0 0,0-1 0,1-2 0,0 1 0,0-2 0,0-1 0,19 1 0,-2-1 0,-1 2 0,65 16 0,-65-11 0,1-2 0,62 4 0,-94-11 0,64 2 0,0-3 0,126-18 0,-105 3 0,-22 5 0,91-28 0,-129 29 0,-1-2 0,0 0 0,0-1 0,-2-2 0,1-1 0,-2-1 0,29-25 0,-47 35 0,0-1 0,0 1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,1-9 0,-1 5 0,1 1 0,0 0 0,12-20 0,140-199 0,-127 185 0,-21 30 0,0 1 0,23-26 0,-12 15 0,-2-1 0,-1 0 0,0-2 0,-2 0 0,15-43 0,-26 61 0,2-5 0,-1-1 0,-1 0 0,0 0 0,1-28 0,5-24 0,-2 21 0,-3-1 0,-2 0 0,-6-86 0,0 26 0,3 30-1365,0 56-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.68">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1173.67">7387 54 24575,'-2'1'0,"1"-1"0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,-1 3 0,-18 29 0,13-22 0,-86 157 0,46-105 25,38-54-199,1 1 1,-1 1-1,2 0 0,0 0 0,0 0 0,1 1 1,-10 24-1,12-17-6652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1552.66">7387 135 24575,'3'1'0,"-1"-1"0,1 2 0,0-1 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,2 3 0,23 31 0,26 70 0,43 76 0,-6-49 0,-86-126-83,4 8-173,0 0-1,2 0 1,0-1-1,21 25 1,-19-28-6570</inkml:trace>
 </inkml:ink>
 </file>
@@ -5275,8 +5276,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="33"/>
@@ -5324,7 +5325,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>133</v>
@@ -5354,7 +5355,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>136</v>
@@ -5384,7 +5385,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>137</v>
@@ -5414,7 +5415,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>138</v>
@@ -5444,7 +5445,7 @@
     </row>
     <row r="7" spans="2:13" hidden="1">
       <c r="B7" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>139</v>
@@ -5459,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="44" t="s">
@@ -5477,7 +5478,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>154</v>
@@ -5513,7 +5514,7 @@
         <v>142</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
@@ -5528,7 +5529,7 @@
         <v>0.25</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="49" t="s">
@@ -5546,7 +5547,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
@@ -5558,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="50"/>
@@ -5571,7 +5572,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
@@ -5586,7 +5587,7 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="51" t="s">
@@ -5604,7 +5605,7 @@
         <v>142</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>9</v>
@@ -5619,7 +5620,7 @@
         <v>0.25</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="52" t="s">
@@ -5637,7 +5638,7 @@
         <v>142</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>9</v>
@@ -5649,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
@@ -5672,7 +5673,7 @@
         <v>0.25</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="2:13" hidden="1">
@@ -5680,7 +5681,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>9</v>
@@ -5692,7 +5693,7 @@
         <v>0.25</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:13" hidden="1">
@@ -5712,7 +5713,7 @@
         <v>0.25</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="2:8" hidden="1">
@@ -5735,7 +5736,7 @@
         <v>0.25</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="2:8" hidden="1">
@@ -5758,7 +5759,7 @@
         <v>0.5</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="2:8" hidden="1">
@@ -5778,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="2:8" hidden="1">
@@ -5798,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:8" hidden="1">
@@ -5818,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:8" hidden="1">
@@ -5838,7 +5839,7 @@
         <v>0.5</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="2:8" hidden="1">
@@ -5858,7 +5859,7 @@
         <v>0.25</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:8" hidden="1">
@@ -5878,7 +5879,7 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="2:8" hidden="1">
@@ -5898,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -5958,7 +5959,7 @@
         <v>0.25</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="2:8" hidden="1">
@@ -5978,7 +5979,7 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:8" hidden="1">
@@ -5986,7 +5987,7 @@
         <v>176</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>9</v>
@@ -5998,7 +5999,7 @@
         <v>0.25</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="2:8" hidden="1">
@@ -6018,7 +6019,7 @@
         <v>0.25</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="2:8" hidden="1">
@@ -6041,7 +6042,7 @@
         <v>0.25</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="2:8" hidden="1">
@@ -6049,7 +6050,7 @@
         <v>180</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>9</v>
@@ -6061,7 +6062,7 @@
         <v>0.5</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="2:8" hidden="1">
@@ -6069,7 +6070,7 @@
         <v>181</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>9</v>
@@ -6081,7 +6082,7 @@
         <v>0.5</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:8" hidden="1">
@@ -6089,7 +6090,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>9</v>
@@ -6101,7 +6102,7 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="2:8" hidden="1">
@@ -6109,7 +6110,7 @@
         <v>199</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>9</v>
@@ -6121,7 +6122,7 @@
         <v>0.5</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:8" hidden="1">
@@ -6129,7 +6130,7 @@
         <v>199</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>9</v>
@@ -6141,15 +6142,15 @@
         <v>0.5</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:8" hidden="1">
       <c r="B38" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>231</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>9</v>
@@ -6161,15 +6162,15 @@
         <v>0.5</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>9</v>
@@ -6186,10 +6187,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>9</v>
@@ -6206,10 +6207,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>9</v>
@@ -6226,10 +6227,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>237</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>238</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>9</v>
@@ -6246,10 +6247,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="60" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>9</v>
@@ -6266,10 +6267,10 @@
     </row>
     <row r="44" spans="2:8" hidden="1">
       <c r="B44" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>215</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>216</v>
       </c>
       <c r="D44" s="27" t="s">
         <v>17</v>
@@ -6281,15 +6282,15 @@
         <v>0.25</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>17</v>
@@ -6306,10 +6307,10 @@
     </row>
     <row r="46" spans="2:8" hidden="1">
       <c r="B46" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D46" s="27" t="s">
         <v>9</v>
@@ -6321,15 +6322,15 @@
         <v>0.5</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>17</v>
@@ -6346,10 +6347,10 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="D48" s="27" t="s">
         <v>25</v>
@@ -6366,10 +6367,10 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>25</v>
@@ -6404,7 +6405,7 @@
         <v>0.25</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="2:8" hidden="1">
@@ -6412,7 +6413,7 @@
         <v>150</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>9</v>
@@ -6427,7 +6428,7 @@
         <v>0.5</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="2:8" hidden="1">
@@ -6447,7 +6448,7 @@
         <v>0.5</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="2:8" hidden="1">
@@ -6455,7 +6456,7 @@
         <v>153</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D53" s="27" t="s">
         <v>9</v>
@@ -6467,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -6495,7 +6496,7 @@
         <v>154</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" s="27" t="s">
         <v>9</v>
@@ -6515,7 +6516,7 @@
         <v>154</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D56" s="27" t="s">
         <v>9</v>
@@ -6535,7 +6536,7 @@
         <v>154</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57" s="27" t="s">
         <v>9</v>
@@ -6795,7 +6796,7 @@
         <v>185</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>9</v>
@@ -6815,7 +6816,7 @@
         <v>185</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>9</v>
@@ -6895,7 +6896,7 @@
         <v>160</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>9</v>
@@ -6915,7 +6916,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>9</v>
@@ -7035,7 +7036,7 @@
         <v>161</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>9</v>
@@ -7193,7 +7194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D6D36-0FF7-4DEF-A03E-3AF065CB9BCC}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7211,155 +7212,148 @@
     <row r="2" spans="2:8" ht="19.5" thickBot="1">
       <c r="B2" s="71"/>
       <c r="C2" s="72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" t="s">
         <v>264</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="74"/>
-      <c r="C4" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75" t="s">
-        <v>266</v>
+      <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="19.5" thickBot="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D6" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="84" t="s">
-        <v>269</v>
-      </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-    </row>
-    <row r="6" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="F6" s="79" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="D8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="C9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="F10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="80" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="G10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="19.5" thickBot="1">
       <c r="F11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="71"/>
       <c r="C12" s="72" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="74" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>259</v>
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="74"/>
-      <c r="C14" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>260</v>
+      <c r="C14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>259</v>
       </c>
       <c r="F14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="74"/>
-      <c r="C15" s="75" t="s">
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B16" s="76"/>
+      <c r="C16" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D16" s="78" t="s">
         <v>261</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7370,6 +7364,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -7612,28 +7627,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7650,23 +7663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>